--- a/1125/结果2.xlsx
+++ b/1125/结果2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{28F3F00E-3A05-4CC2-BF67-306473158F04}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C650682D-1367-4177-BAC0-E5633A91AB29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -187,6 +187,102 @@
   </si>
   <si>
     <t>模型预测严重程度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. of AH events</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimated</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHI(events/h)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-SAHS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mild SAHS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moderate SAHS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Severe SAHS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>std</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_estimated</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.5±17.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>89.5±27.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.4±1.8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.9±2.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>133.2±23.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>160.0±38.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.0±3.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.6±6.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>191.8±70.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>216.2±71.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.8±16.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40.7±14.0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,8 +328,24 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +360,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -275,7 +397,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -283,8 +405,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -298,10 +426,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
     <cellStyle name="着色 2" xfId="2" builtinId="33"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -580,18 +724,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>4</v>
@@ -639,286 +785,301 @@
         <v>18</v>
       </c>
       <c r="Q1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="8">
         <v>7652.5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>1059.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="8">
         <v>0.86585365853658536</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="8">
         <v>0.82005048854266449</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="8">
         <v>0.75012065217661184</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="8">
         <v>0.81927547399939216</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="8">
         <v>0.86399859279880076</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="8">
         <v>0.63548391413735883</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="8">
         <v>0.92570189454462448</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="8">
         <v>0.7873345935727788</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="8">
         <v>0.63548391413735883</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="8">
         <v>0.78260869565217395</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="8">
         <v>0.87378640776699035</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="8">
         <v>25</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="8">
         <v>13</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="8">
+        <f>R2-P2+O2</f>
+        <v>115</v>
+      </c>
+      <c r="R2" s="8">
         <v>103</v>
       </c>
-      <c r="R2" s="2">
+      <c r="S2" s="8">
         <v>2116</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="8">
         <v>15408</v>
       </c>
-      <c r="T2" s="2">
+      <c r="U2" s="8">
         <v>16222</v>
       </c>
-      <c r="U2" s="2">
+      <c r="V2" s="8">
         <v>1666</v>
       </c>
-      <c r="V2" s="2">
+      <c r="W2" s="8">
         <v>21.14748488650622</v>
       </c>
-      <c r="W2" s="2">
+      <c r="X2" s="8">
         <v>23.61126953347781</v>
-      </c>
-      <c r="X2" s="2">
-        <v>2</v>
       </c>
       <c r="Y2" s="2">
         <v>2</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="Z2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="10">
         <v>8798.5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="10">
         <v>2303.5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="10">
         <v>0.79449986272535922</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="10">
         <v>0.91542400988016603</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="10">
         <v>0.69985259671417843</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="10">
         <v>0.82271470120586887</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="10">
         <v>0.70147755522108968</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="10">
         <v>0.5952618486436837</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="10">
         <v>0.87746592539454804</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="10">
         <v>0.78163663989581067</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="10">
         <v>0.5952618486436837</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="10">
         <v>0.84674329501915713</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="10">
         <v>0.88400000000000001</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="10">
         <v>40</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="10">
         <v>29</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Q14" si="0">R3-P3+O3</f>
+        <v>261</v>
+      </c>
+      <c r="R3" s="10">
         <v>250</v>
       </c>
-      <c r="R3" s="2">
+      <c r="S3" s="10">
         <v>4607</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3" s="10">
         <v>17697</v>
       </c>
-      <c r="T3" s="2">
+      <c r="U3" s="10">
         <v>19571</v>
       </c>
-      <c r="U3" s="2">
+      <c r="V3" s="10">
         <v>3601</v>
       </c>
-      <c r="V3" s="2">
+      <c r="W3" s="10">
         <v>40.333422963162143</v>
       </c>
-      <c r="W3" s="2">
+      <c r="X3" s="10">
         <v>42.108093573541282</v>
-      </c>
-      <c r="X3" s="2">
-        <v>3</v>
       </c>
       <c r="Y3" s="2">
         <v>3</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="Z3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="8">
         <v>8387</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <v>933</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="8">
         <v>0.86057955166757794</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="8">
         <v>0.86927642034167651</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="8">
         <v>0.68171716876201827</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="8">
         <v>0.79790920541732102</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="8">
         <v>0.85473756382528032</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="8">
         <v>0.51758911030030874</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="8">
         <v>0.90747065101387403</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="8">
         <v>0.82622773880194278</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="8">
         <v>0.51267751894470948</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="8">
         <v>0.80281690140845074</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="8">
         <v>0.89763779527559051</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="8">
         <v>28</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="8">
         <v>13</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="8">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="R4" s="8">
         <v>127</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4" s="8">
         <v>1853</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="8">
         <v>16887</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="8">
         <v>17006</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="8">
         <v>1531</v>
       </c>
-      <c r="V4" s="2">
+      <c r="W4" s="8">
         <v>24.384</v>
       </c>
-      <c r="W4" s="2">
+      <c r="X4" s="8">
         <v>27.263999999999999</v>
-      </c>
-      <c r="X4" s="2">
-        <v>2</v>
       </c>
       <c r="Y4" s="2">
         <v>2</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="Z4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -968,111 +1129,119 @@
         <v>19</v>
       </c>
       <c r="Q5" s="2">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="R5" s="2">
         <v>66</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>1366</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>21292</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <v>21206</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <v>848</v>
       </c>
-      <c r="V5" s="2">
+      <c r="W5" s="2">
         <v>10.48173636844891</v>
       </c>
-      <c r="W5" s="2">
+      <c r="X5" s="2">
         <v>12.863949179460031</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1</v>
       </c>
       <c r="Y5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="10">
         <v>9845</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="10">
         <v>1600</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="10">
         <v>0.73216826752045527</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="10">
         <v>0.84757909856101277</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="10">
         <v>0.55270111771525343</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="10">
         <v>0.69624592896920467</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="10">
         <v>0.72454146528013341</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="10">
         <v>0.41617694832253882</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="10">
         <v>0.8089002958065078</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="10">
         <v>0.70942325874566659</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="10">
         <v>0.41617694832253882</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="10">
         <v>0.6015325670498084</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="10">
         <v>0.80927835051546393</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="10">
         <v>104</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="10">
         <v>37</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="10">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="R6" s="10">
         <v>194</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="10">
         <v>3173</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="10">
         <v>19815</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="10">
         <v>18595</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="10">
         <v>2251</v>
       </c>
-      <c r="V6" s="2">
+      <c r="W6" s="10">
         <v>30.367858074615182</v>
       </c>
-      <c r="W6" s="2">
+      <c r="X6" s="10">
         <v>40.855726584920433</v>
-      </c>
-      <c r="X6" s="2">
-        <v>3</v>
       </c>
       <c r="Y6" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1122,114 +1291,122 @@
         <v>13</v>
       </c>
       <c r="Q7" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="R7" s="2">
         <v>59</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>1336</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>15010</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>15251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>1041</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>12.986060161408661</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>13.206162876008809</v>
-      </c>
-      <c r="X7" s="2">
-        <v>1</v>
       </c>
       <c r="Y7" s="2">
         <v>1</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="8">
         <v>7949</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="8">
         <v>2013</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <v>0.81999796147181736</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="8">
         <v>0.89088650777110001</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="8">
         <v>0.77396128386435681</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="8">
         <v>0.82191900068545687</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="8">
         <v>0.77192092636237497</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="8">
         <v>0.70604479407236331</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="8">
         <v>0.88048147038257918</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="8">
         <v>0.72455834784772333</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="8">
         <v>0.70604479407236331</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="8">
         <v>0.75268817204301075</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="8">
         <v>0.90909090909090906</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="8">
         <v>46</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="8">
         <v>14</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="8">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="R8" s="8">
         <v>154</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="8">
         <v>4019</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="8">
         <v>16003</v>
       </c>
-      <c r="T8" s="4">
+      <c r="U8" s="8">
         <v>17629</v>
       </c>
-      <c r="U8" s="4">
+      <c r="V8" s="8">
         <v>2912</v>
       </c>
-      <c r="V8" s="4">
+      <c r="W8" s="8">
         <v>27.675718849840251</v>
       </c>
-      <c r="W8" s="4">
+      <c r="X8" s="8">
         <v>33.426517571884979</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Y8" s="4">
         <v>2</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Z8" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -1278,189 +1455,201 @@
       <c r="P9" s="4">
         <v>14</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="2">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="R9" s="4">
         <v>98</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>1627</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <v>22455</v>
       </c>
-      <c r="T9" s="4">
+      <c r="U9" s="4">
         <v>21818</v>
       </c>
-      <c r="U9" s="4">
+      <c r="V9" s="4">
         <v>1301</v>
       </c>
-      <c r="V9" s="4">
+      <c r="W9" s="2">
         <v>14.64386518346339</v>
       </c>
-      <c r="W9" s="4">
+      <c r="X9" s="2">
         <v>18.827826664452932</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Y9" s="4">
         <v>1</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Z9" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>16</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="8">
         <v>7897.5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="8">
         <v>1242.5</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="8">
         <v>0.79274730319026854</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="8">
         <v>0.75500597434014027</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="8">
         <v>0.72845143698688597</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="8">
         <v>0.69862745267557835</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="8">
         <v>0.86875529910892491</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="8">
         <v>0.45400762927418192</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="8">
         <v>0.84057024703449779</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="8">
         <v>0.7709429380817483</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="8">
         <v>0.451671180676051</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="8">
         <v>0.64467005076142136</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="8">
         <v>0.8523489932885906</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="8">
         <v>70</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="8">
         <v>22</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="8">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="R10" s="8">
         <v>149</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="8">
         <v>2471</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="8">
         <v>15907</v>
       </c>
-      <c r="T10" s="4">
+      <c r="U10" s="8">
         <v>15448</v>
       </c>
-      <c r="U10" s="4">
+      <c r="V10" s="8">
         <v>1905</v>
       </c>
-      <c r="V10" s="4">
+      <c r="W10" s="8">
         <v>29.171198607787691</v>
       </c>
-      <c r="W10" s="4">
+      <c r="X10" s="8">
         <v>38.568631716336739</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Y10" s="4">
         <v>2</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Z10" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:30" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>18</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="10">
         <v>1461.5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="10">
         <v>1076.5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="10">
         <v>0.77541998231653397</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="10">
         <v>0.95922066153149066</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="10">
         <v>0.81458434174266037</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="10">
         <v>0.75151722685158462</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="10">
         <v>0.74038679673321228</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="10">
         <v>0.67502318683574147</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="10">
         <v>0.7423656745264785</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="10">
         <v>0.71996303142329021</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="10">
         <v>0.67311114094664015</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="10">
         <v>0.86792452830188682</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="10">
         <v>0.89320388349514568</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="10">
         <v>14</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="10">
         <v>11</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="10">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="R11" s="10">
         <v>103</v>
       </c>
-      <c r="R11" s="2">
+      <c r="S11" s="10">
         <v>2164</v>
       </c>
-      <c r="S11" s="2">
+      <c r="T11" s="10">
         <v>3010</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="10">
         <v>3841</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="10">
         <v>1558</v>
       </c>
-      <c r="V11" s="2">
+      <c r="W11" s="10">
         <v>71.527777777777786</v>
       </c>
-      <c r="W11" s="2">
+      <c r="X11" s="10">
         <v>73.611111111111114</v>
-      </c>
-      <c r="X11" s="2">
-        <v>3</v>
       </c>
       <c r="Y11" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>19</v>
       </c>
@@ -1510,188 +1699,200 @@
         <v>22</v>
       </c>
       <c r="Q12" s="2">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="R12" s="2">
         <v>71</v>
       </c>
-      <c r="R12" s="2">
+      <c r="S12" s="2">
         <v>1494</v>
       </c>
-      <c r="S12" s="2">
+      <c r="T12" s="2">
         <v>20714</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="2">
         <v>20197</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>904</v>
       </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
         <v>11.50418579530111</v>
       </c>
-      <c r="W12" s="2">
+      <c r="X12" s="2">
         <v>14.74480151228733</v>
-      </c>
-      <c r="X12" s="2">
-        <v>1</v>
       </c>
       <c r="Y12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="Z12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>20</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="10">
         <v>8585</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="10">
         <v>2647</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="10">
         <v>0.82534741021476266</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="10">
         <v>0.84521382466720796</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="10">
         <v>0.79010276082854314</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="10">
         <v>0.73772875288196371</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="10">
         <v>0.84671559851461509</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="10">
         <v>0.60588571154428195</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="10">
         <v>0.82906399574543521</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="10">
         <v>0.8151623193844999</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="10">
         <v>0.60358777351605375</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="10">
         <v>0.84444444444444444</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="10">
         <v>0.84444444444444444</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="10">
         <v>42</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="10">
         <v>42</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="10">
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="10">
+        <v>270</v>
+      </c>
+      <c r="S13" s="10">
         <v>5329</v>
       </c>
-      <c r="S13" s="2">
+      <c r="T13" s="10">
         <v>17235</v>
       </c>
-      <c r="T13" s="2">
+      <c r="U13" s="10">
         <v>18707</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="10">
         <v>4344</v>
       </c>
-      <c r="V13" s="2">
+      <c r="W13" s="10">
         <v>43.058385753521748</v>
       </c>
-      <c r="W13" s="2">
+      <c r="X13" s="10">
         <v>43.058385753521748</v>
-      </c>
-      <c r="X13" s="2">
-        <v>3</v>
       </c>
       <c r="Y13" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="Z13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>21</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="10">
         <v>6033</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="10">
         <v>1551</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="10">
         <v>0.68500273672687473</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="10">
         <v>0.86753865562528309</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="10">
         <v>0.63773748012718601</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="10">
         <v>0.76758334555600038</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="10">
         <v>0.73680689359880114</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="10">
         <v>0.52662774953679503</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="10">
         <v>0.82189178566749643</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="10">
         <v>0.66120218579234968</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="10">
         <v>0.52662774953679503</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="10">
         <v>0.62841530054644812</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="10">
         <v>0.8098591549295775</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="10">
         <v>68</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="10">
         <v>27</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="10">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="R14" s="10">
         <v>142</v>
       </c>
-      <c r="R14" s="2">
+      <c r="S14" s="10">
         <v>3111</v>
       </c>
-      <c r="S14" s="2">
+      <c r="T14" s="10">
         <v>12155</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="10">
         <v>12547</v>
       </c>
-      <c r="U14" s="2">
+      <c r="V14" s="10">
         <v>2057</v>
       </c>
-      <c r="V14" s="2">
+      <c r="W14" s="10">
         <v>33.464257659073063</v>
       </c>
-      <c r="W14" s="2">
+      <c r="X14" s="10">
         <v>43.126472898664566</v>
-      </c>
-      <c r="X14" s="2">
-        <v>3</v>
       </c>
       <c r="Y14" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="J15">
         <f>AVERAGE(J2:J14)</f>
         <v>0.87063651301781886</v>
@@ -1705,11 +1906,11 @@
         <v>0.53732439505390284</v>
       </c>
       <c r="M15">
-        <f>(Q15-P15)/(Q15-P15+O15)</f>
+        <f>(R15-P15)/(R15-P15+O15)</f>
         <v>0.72631072631072635</v>
       </c>
       <c r="N15">
-        <f>(Q15-P15)/Q15</f>
+        <f>(R15-P15)/R15</f>
         <v>0.84546472564389696</v>
       </c>
       <c r="O15">
@@ -1720,228 +1921,438 @@
         <f>SUM(P2:P14)</f>
         <v>276</v>
       </c>
-      <c r="Q15">
-        <f>SUM(Q2:Q14)</f>
+      <c r="R15">
+        <f>SUM(R2:R14)</f>
         <v>1786</v>
       </c>
     </row>
-    <row r="24" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="F24" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="G24" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="J24" t="s">
+      <c r="F17" t="s">
         <v>36</v>
       </c>
-      <c r="K24" t="s">
+      <c r="G17" t="s">
         <v>38</v>
       </c>
-      <c r="L24" t="s">
+      <c r="H17" t="s">
         <v>39</v>
       </c>
-      <c r="M24" t="s">
+      <c r="I17" t="s">
         <v>37</v>
       </c>
-      <c r="N24" t="s">
+      <c r="J17" t="s">
         <v>40</v>
       </c>
-      <c r="O24" t="s">
+      <c r="K17" t="s">
         <v>41</v>
       </c>
-      <c r="P24" t="s">
+      <c r="L17" t="s">
         <v>42</v>
       </c>
-      <c r="S24" t="s">
+      <c r="O17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="F25">
+      <c r="B18">
+        <f>SUM(V2:V14)</f>
+        <v>25919</v>
+      </c>
+      <c r="C18">
+        <f>C20-C19</f>
+        <v>21469</v>
+      </c>
+      <c r="D18">
+        <f>B18+C18</f>
+        <v>47388</v>
+      </c>
+      <c r="F18">
+        <f>D20/(D18+D19)</f>
+        <v>0.87828594906829294</v>
+      </c>
+      <c r="G18">
+        <f>B18/B20</f>
+        <v>0.74767783995846071</v>
+      </c>
+      <c r="H18">
+        <f>C19/C20</f>
+        <v>0.89948405341124038</v>
+      </c>
+      <c r="I18">
+        <f>B18/D18</f>
+        <v>0.54695281505866467</v>
+      </c>
+      <c r="J18">
+        <f>(K18-L18)/(1-L18)</f>
+        <v>0.56093872440668346</v>
+      </c>
+      <c r="K18">
+        <f>D20/(D18+D19)</f>
+        <v>0.87828594906829294</v>
+      </c>
+      <c r="L18">
+        <f>(B20*D18+C20*D19)/(B20+C20)^2</f>
+        <v>0.72278573015296954</v>
+      </c>
+      <c r="O18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <f>B20-B18</f>
+        <v>8747</v>
+      </c>
+      <c r="C19">
+        <f>D20-B18</f>
+        <v>192119</v>
+      </c>
+      <c r="D19">
+        <f>B19+C19</f>
+        <v>200866</v>
+      </c>
+      <c r="M19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f>SUM(S2:S14)</f>
+        <v>34666</v>
+      </c>
+      <c r="C20">
+        <f>SUM(T2:T14)</f>
+        <v>213588</v>
+      </c>
+      <c r="D20">
         <f>SUM(U2:U14)</f>
-        <v>25919</v>
-      </c>
-      <c r="G25">
-        <f>G27-G26</f>
-        <v>21469</v>
-      </c>
-      <c r="H25">
-        <f>F25+G25</f>
-        <v>47388</v>
-      </c>
-      <c r="J25">
-        <f>H27/(H25+H26)</f>
-        <v>0.87828594906829294</v>
-      </c>
-      <c r="K25">
-        <f>F25/F27</f>
-        <v>0.74767783995846071</v>
-      </c>
-      <c r="L25">
-        <f>G26/G27</f>
-        <v>0.89948405341124038</v>
-      </c>
-      <c r="M25">
-        <f>F25/H25</f>
-        <v>0.54695281505866467</v>
-      </c>
-      <c r="N25">
-        <f>(O25-P25)/(1-P25)</f>
-        <v>0.56093872440668346</v>
-      </c>
-      <c r="O25">
-        <f>H27/(H25+H26)</f>
-        <v>0.87828594906829294</v>
-      </c>
-      <c r="P25">
-        <f>(F27*H25+G27*H26)/(F27+G27)^2</f>
-        <v>0.72278573015296954</v>
-      </c>
-      <c r="S25" t="s">
-        <v>43</v>
-      </c>
-      <c r="T25" t="s">
+        <v>218038</v>
+      </c>
+      <c r="N20" t="s">
         <v>44</v>
       </c>
-      <c r="U25" t="s">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="N21" t="s">
         <v>45</v>
       </c>
-      <c r="V25" t="s">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26">
-        <f>F27-F25</f>
-        <v>8747</v>
-      </c>
-      <c r="G26">
-        <f>H27-F25</f>
-        <v>192119</v>
-      </c>
-      <c r="H26">
-        <f>F26+G26</f>
-        <v>200866</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>48</v>
-      </c>
-      <c r="R26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S26">
+      <c r="O22">
         <v>0</v>
       </c>
-      <c r="T26">
+      <c r="P22">
         <v>0</v>
       </c>
-      <c r="U26">
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>5</v>
+      </c>
+      <c r="T22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O23">
         <v>0</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="F27">
-        <f>SUM(R2:R14)</f>
-        <v>34666</v>
-      </c>
-      <c r="G27">
-        <f>SUM(S2:S14)</f>
-        <v>213588</v>
-      </c>
-      <c r="H27">
-        <f>SUM(T2:T14)</f>
-        <v>218038</v>
-      </c>
-      <c r="R27" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="R28" t="s">
-        <v>45</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28">
-        <v>2</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="R29" t="s">
-        <v>46</v>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H27" s="11"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" t="s">
+        <v>51</v>
+      </c>
+      <c r="O27" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q28"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" t="s">
+        <v>64</v>
+      </c>
+      <c r="O29">
+        <f>AVERAGE(R5,R7,R9,R12)</f>
+        <v>73.5</v>
+      </c>
+      <c r="P29">
+        <f>STDEV(R5,R7,R9,R12)</f>
+        <v>17.058722109231979</v>
+      </c>
+      <c r="Q29">
+        <f>AVERAGE(Q5,Q7,Q9,Q12)</f>
+        <v>89.5</v>
+      </c>
+      <c r="R29">
+        <f>STDEV(Q5,Q7,Q9,Q12)</f>
+        <v>27.54995462791182</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <f>AVERAGE(W5,W7,W12,W9)</f>
+        <v>12.403961877155519</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <f>STDEV(W5,W7,W9,W12)</f>
+        <v>1.8129674696418716</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <f>AVERAGE(X5,X7,X9,X12)</f>
+        <v>14.910685058052275</v>
       </c>
       <c r="V29">
-        <v>5</v>
-      </c>
-      <c r="W29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="5:23" x14ac:dyDescent="0.2">
+        <f>STDEV(X5,X7,X9,X12)</f>
+        <v>2.7365452271763862</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" t="s">
+        <v>68</v>
+      </c>
+      <c r="O30">
+        <f>AVERAGE(R2,R4,R8,R10)</f>
+        <v>133.25</v>
+      </c>
+      <c r="P30">
+        <f>STDEV(R2,R4,R8,R10)</f>
+        <v>23.32916629457641</v>
+      </c>
+      <c r="Q30">
+        <f>AVERAGE(Q2,Q4,Q8,Q10)</f>
+        <v>160</v>
+      </c>
+      <c r="R30">
+        <f>STDEV(Q2,Q4,Q8,Q10)</f>
+        <v>38.27096375408734</v>
+      </c>
       <c r="S30">
-        <v>0</v>
+        <f>AVERAGE(S29,W2,W4,W8,W10)</f>
+        <v>22.956472844257934</v>
       </c>
       <c r="T30">
-        <v>4</v>
+        <f>STDEV(W2,W4,W8,W10)</f>
+        <v>3.5761011572685568</v>
       </c>
       <c r="U30">
-        <v>4</v>
+        <f>AVERAGE(U29,X2,X4,X8,X10)</f>
+        <v>27.556220775950361</v>
       </c>
       <c r="V30">
-        <v>5</v>
-      </c>
-      <c r="W30">
-        <v>13</v>
+        <f>STDEV(X2,X4,X8,X10)</f>
+        <v>6.6182630924214765</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+      <c r="O31">
+        <f>AVERAGE(R3,R6,R11,R13,R14)</f>
+        <v>191.8</v>
+      </c>
+      <c r="P31">
+        <f>STDEV(R3,R6,R11,R13,R14)</f>
+        <v>70.485459493430255</v>
+      </c>
+      <c r="Q31">
+        <f>AVERAGE(Q3,Q6,Q11,Q14,Q13)</f>
+        <v>216.2</v>
+      </c>
+      <c r="R31">
+        <f>STDEV(Q3,Q6,Q11,Q13,Q14)</f>
+        <v>70.983800968953446</v>
+      </c>
+      <c r="S31">
+        <f>AVERAGE(W3,W6,W11,W13,W14)</f>
+        <v>43.750340445629988</v>
+      </c>
+      <c r="T31">
+        <f>STDEV(W3,W6,W11,W13,W14)</f>
+        <v>16.344987646230781</v>
+      </c>
+      <c r="U31">
+        <f>AVERAGE(U29:U30,X3,X6,X11,X13,X14)</f>
+        <v>40.746670822251687</v>
+      </c>
+      <c r="V31">
+        <f>STDEV(X3,X6,X11,X13,X14)</f>
+        <v>14.038623027199264</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/1125/结果2.xlsx
+++ b/1125/结果2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C650682D-1367-4177-BAC0-E5633A91AB29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B67AFE44-3240-4228-805E-FDD68DCFED93}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -283,6 +283,34 @@
   </si>
   <si>
     <t>40.7±14.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kappa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>overall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>≥5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>≥15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>≥30</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -724,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD31"/>
+  <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2008,10 +2036,10 @@
       <c r="P18" t="s">
         <v>44</v>
       </c>
+      <c r="Q18" t="s">
+        <v>45</v>
+      </c>
       <c r="R18" t="s">
-        <v>45</v>
-      </c>
-      <c r="S18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2043,13 +2071,13 @@
       <c r="P19">
         <v>0</v>
       </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
         <v>0</v>
       </c>
     </row>
@@ -2075,13 +2103,13 @@
       <c r="P20">
         <v>3</v>
       </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
         <v>3</v>
       </c>
     </row>
@@ -2095,13 +2123,13 @@
       <c r="P21">
         <v>1</v>
       </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
       <c r="R21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
         <v>3</v>
       </c>
     </row>
@@ -2115,13 +2143,13 @@
       <c r="P22">
         <v>0</v>
       </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
       <c r="R22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>5</v>
-      </c>
-      <c r="T22">
         <v>7</v>
       </c>
     </row>
@@ -2132,13 +2160,13 @@
       <c r="P23">
         <v>4</v>
       </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
       <c r="R23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23">
-        <v>5</v>
-      </c>
-      <c r="T23">
         <v>13</v>
       </c>
     </row>
@@ -2345,6 +2373,88 @@
       <c r="V31">
         <f>STDEV(X3,X6,X11,X13,X14)</f>
         <v>14.038623027199264</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36">
+        <f>10/13</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="I36">
+        <f>(12+12+35)/169</f>
+        <v>0.34911242603550297</v>
+      </c>
+      <c r="J36">
+        <f>(H36-I36)/(1-I36)</f>
+        <v>0.6454545454545455</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38">
+        <f>12/13</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="I38">
+        <f>(12+90)/169</f>
+        <v>0.60355029585798814</v>
+      </c>
+      <c r="J38">
+        <f>(H38-I38)/(1-I38)</f>
+        <v>0.80597014925373145</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39">
+        <f>11/13</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="I39">
+        <f>(48+35)/169</f>
+        <v>0.4911242603550296</v>
+      </c>
+      <c r="J39" s="5">
+        <f>(H39-I39)/(1-I39)</f>
+        <v>0.69767441860465118</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <f>(J37+J38+J39)/3</f>
+        <v>0.83454818928612751</v>
       </c>
     </row>
   </sheetData>

--- a/1125/结果2.xlsx
+++ b/1125/结果2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5E1F726E-5FE1-44F5-860B-F8F5E3ACDEBB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{70937995-7B72-4417-9586-C03165F966D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,16 +711,16 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="差" xfId="3" builtinId="27"/>
@@ -1006,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS40"/>
+  <dimension ref="A1:AS42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AD24" sqref="AD24:AH29"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1266,7 +1266,7 @@
       <c r="AN2" s="8">
         <v>54</v>
       </c>
-      <c r="AO2" s="14">
+      <c r="AO2" s="12">
         <v>16</v>
       </c>
       <c r="AP2" s="8">
@@ -1284,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10">
-        <f t="shared" ref="B3:B14" si="0">C3+1</f>
+        <f t="shared" ref="B3:B16" si="0">C3+1</f>
         <v>2</v>
       </c>
       <c r="C3" s="9">
@@ -1339,7 +1339,7 @@
         <v>29</v>
       </c>
       <c r="T3" s="10">
-        <f t="shared" ref="T3:T14" si="1">U3-S3+R3</f>
+        <f t="shared" ref="T3:T16" si="1">U3-S3+R3</f>
         <v>261</v>
       </c>
       <c r="U3" s="10">
@@ -1399,7 +1399,7 @@
       <c r="AN3" s="10">
         <v>48</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="13">
         <v>13</v>
       </c>
       <c r="AP3" s="10">
@@ -1532,7 +1532,7 @@
       <c r="AN4" s="8">
         <v>52</v>
       </c>
-      <c r="AO4" s="14">
+      <c r="AO4" s="12">
         <v>3</v>
       </c>
       <c r="AP4" s="8">
@@ -1662,7 +1662,7 @@
       <c r="AN5" s="2">
         <v>47</v>
       </c>
-      <c r="AO5" s="16">
+      <c r="AO5" s="14">
         <v>15</v>
       </c>
       <c r="AP5" s="2">
@@ -1675,1948 +1675,2128 @@
         <v>24405</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+    <row r="6" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8991</v>
+      </c>
+      <c r="F6" s="5">
+        <v>113</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.852730928180498</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.16302652106084201</v>
+      </c>
+      <c r="I6" s="5">
+        <v>7.20192970365265E-2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.86769099445155695</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>6.1162079510703304E-3</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.96684147274117704</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1.9230769230769201E-2</v>
+      </c>
+      <c r="O6" s="5">
+        <v>6.1162079510703304E-3</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="R6" s="5">
+        <v>24</v>
+      </c>
+      <c r="S6" s="5">
+        <v>15</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="U6" s="5">
+        <v>16</v>
+      </c>
+      <c r="V6" s="5">
+        <v>208</v>
+      </c>
+      <c r="W6" s="5">
+        <v>18098</v>
+      </c>
+      <c r="X6" s="5">
+        <v>17699</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>3.1447914391788498</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>4.91373662371696</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>8</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B7" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="9">
         <v>6</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <v>6</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="10">
         <v>9845</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="10">
         <v>1600</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G7" s="10">
         <v>0.73216826752045527</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H7" s="10">
         <v>0.84757909856101277</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I7" s="10">
         <v>0.55270111771525343</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J7" s="10">
         <v>0.69624592896920467</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K7" s="10">
         <v>0.72454146528013341</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L7" s="10">
         <v>0.41617694832253882</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M7" s="10">
         <v>0.8089002958065078</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N7" s="10">
         <v>0.70942325874566659</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O7" s="10">
         <v>0.41617694832253882</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P7" s="10">
         <v>0.6015325670498084</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q7" s="10">
         <v>0.80927835051546393</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R7" s="10">
         <v>104</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S7" s="10">
         <v>37</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T7" s="10">
         <f t="shared" si="1"/>
         <v>261</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U7" s="10">
         <v>194</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V7" s="10">
         <v>3173</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W7" s="10">
         <v>19815</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X7" s="10">
         <v>18595</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y7" s="10">
         <v>2251</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="Z7" s="10">
         <v>30.367858074615182</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA7" s="10">
         <v>40.855726584920433</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB7" s="10">
         <v>3</v>
       </c>
-      <c r="AC6" s="10">
+      <c r="AC7" s="10">
         <v>3</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AF7" s="10">
         <v>8</v>
       </c>
-      <c r="AG6" s="10" t="s">
+      <c r="AG7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AH6" s="10">
+      <c r="AH7" s="10">
         <v>174</v>
       </c>
-      <c r="AI6" s="10">
+      <c r="AI7" s="10">
         <v>119</v>
       </c>
-      <c r="AJ6" s="10" t="s">
+      <c r="AJ7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AK6" s="10" t="s">
+      <c r="AK7" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="AL6" s="10">
+      <c r="AL7" s="10">
         <v>34</v>
       </c>
-      <c r="AM6" s="10">
+      <c r="AM7" s="10">
         <v>39.299999999999997</v>
       </c>
-      <c r="AN6" s="10">
+      <c r="AN7" s="10">
         <v>38</v>
       </c>
-      <c r="AO6" s="15">
+      <c r="AO7" s="13">
         <v>2</v>
       </c>
-      <c r="AP6" s="10">
+      <c r="AP7" s="10">
         <v>7.6</v>
       </c>
-      <c r="AQ6" s="10">
+      <c r="AQ7" s="10">
         <v>92</v>
       </c>
-      <c r="AS6" s="10">
+      <c r="AS7" s="10">
         <v>27211</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="8" spans="1:45" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>10</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>7446.5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>677.5</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>0.88156717371852233</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="2">
         <v>0.75043126486223533</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I8" s="2">
         <v>0.70273522797196708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J8" s="2">
         <v>0.77668697587625624</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K8" s="2">
         <v>0.87848239032955555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L8" s="2">
         <v>0.57243158222745416</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M8" s="2">
         <v>0.93301113422243975</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N8" s="2">
         <v>0.77919161676646709</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O8" s="2">
         <v>0.5648732298926189</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P8" s="2">
         <v>0.76666666666666661</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q8" s="2">
         <v>0.77966101694915257</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R8" s="2">
         <v>14</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S8" s="2">
         <v>13</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T8" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U8" s="2">
         <v>59</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V8" s="2">
         <v>1336</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W8" s="2">
         <v>15010</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X8" s="2">
         <v>15251</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y8" s="2">
         <v>1041</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z8" s="2">
         <v>12.986060161408661</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA8" s="2">
         <v>13.206162876008809</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB8" s="2">
         <v>1</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC8" s="2">
         <v>1</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AE8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF8" s="2">
         <v>10</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AH8" s="2">
         <v>179</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AI8" s="2">
         <v>97.5</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AK8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AL8" s="2">
         <v>25</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AM8" s="2">
         <v>30.4</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AN8" s="2">
         <v>51</v>
       </c>
-      <c r="AO7" s="16">
+      <c r="AO8" s="14">
         <v>16</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AP8" s="2">
         <v>7.2</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AQ8" s="2">
         <v>85</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AS8" s="2">
         <v>25941</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="8" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="9" spans="1:45" s="8" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>12</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B9" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="7">
         <v>9</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>9</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="8">
         <v>7949</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9" s="8">
         <v>2013</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="8">
         <v>0.81999796147181736</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H9" s="8">
         <v>0.89088650777110001</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I9" s="8">
         <v>0.77396128386435681</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J9" s="8">
         <v>0.82191900068545687</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K9" s="8">
         <v>0.77192092636237497</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L9" s="8">
         <v>0.70604479407236331</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M9" s="8">
         <v>0.88048147038257918</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N9" s="8">
         <v>0.72455834784772333</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O9" s="8">
         <v>0.70604479407236331</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P9" s="8">
         <v>0.75268817204301075</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q9" s="8">
         <v>0.90909090909090906</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R9" s="8">
         <v>46</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S9" s="8">
         <v>14</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T9" s="8">
         <f t="shared" si="1"/>
         <v>186</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U9" s="8">
         <v>154</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V9" s="8">
         <v>4019</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W9" s="8">
         <v>16003</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X9" s="8">
         <v>17629</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y9" s="8">
         <v>2912</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="Z9" s="8">
         <v>27.675718849840251</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AA9" s="8">
         <v>33.426517571884979</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AB9" s="11">
         <v>2</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC9" s="11">
         <v>3</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF9" s="8">
         <v>12</v>
       </c>
-      <c r="AG8" s="8" t="s">
+      <c r="AG9" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AH9" s="8">
         <v>177</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AI9" s="8">
         <v>91</v>
       </c>
-      <c r="AJ8" s="8" t="s">
+      <c r="AJ9" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AK8" s="8" t="s">
+      <c r="AK9" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AL8" s="8">
+      <c r="AL9" s="8">
         <v>36</v>
       </c>
-      <c r="AM8" s="8">
+      <c r="AM9" s="8">
         <v>29</v>
       </c>
-      <c r="AN8" s="8">
+      <c r="AN9" s="8">
         <v>56</v>
       </c>
-      <c r="AO8" s="14">
+      <c r="AO9" s="12">
         <v>5</v>
       </c>
-      <c r="AP8" s="8">
+      <c r="AP9" s="8">
         <v>6.4</v>
       </c>
-      <c r="AQ8" s="8">
+      <c r="AQ9" s="8">
         <v>79</v>
       </c>
-      <c r="AS8" s="8">
+      <c r="AS9" s="8">
         <v>23239</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="10" spans="1:45" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>16</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>13</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>12</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>11178.5</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
         <v>813.5</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="4">
         <v>0.88304362360020061</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="4">
         <v>0.81885659799482546</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="4">
         <v>0.69221369537696997</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J10" s="4">
         <v>0.70282550999715576</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K10" s="4">
         <v>0.88690500978636577</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L10" s="4">
         <v>0.40636617704903982</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M10" s="4">
         <v>0.90598787476123244</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N10" s="4">
         <v>0.79963122311001844</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O10" s="4">
         <v>0.40636617704903982</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P10" s="4">
         <v>0.66666666666666674</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q10" s="4">
         <v>0.85714285714285721</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R10" s="4">
         <v>42</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S10" s="4">
         <v>14</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T10" s="2">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U10" s="4">
         <v>98</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V10" s="4">
         <v>1627</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W10" s="4">
         <v>22455</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X10" s="4">
         <v>21818</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y10" s="4">
         <v>1301</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z10" s="2">
         <v>14.64386518346339</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA10" s="2">
         <v>18.827826664452932</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AB10" s="11">
         <v>1</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC10" s="11">
         <v>2</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AF10" s="2">
         <v>16</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AH10" s="2">
         <v>178</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AI10" s="2">
         <v>97.8</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AJ10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AK9" s="2" t="s">
+      <c r="AK10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AL10" s="2">
         <v>16</v>
       </c>
-      <c r="AM9" s="2">
+      <c r="AM10" s="2">
         <v>30.9</v>
       </c>
-      <c r="AN9" s="2">
+      <c r="AN10" s="2">
         <v>49</v>
       </c>
-      <c r="AO9" s="16">
+      <c r="AO10" s="14">
         <v>18</v>
       </c>
-      <c r="AP9" s="2">
+      <c r="AP10" s="2">
         <v>7.1</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="AQ10" s="2">
         <v>92</v>
       </c>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2">
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2">
         <v>25573</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="8" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="11" spans="1:45" s="5" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <v>9100.5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>213.5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.9059136802396538</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.25330396475770928</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.224609375</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.46128608923884512</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.1583333333333333</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.25675675675675669</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.9763964541279504</v>
+      </c>
+      <c r="N11" s="5">
+        <v>4.3678160919540229E-2</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.25675675675675669</v>
+      </c>
+      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>24</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U11" s="5">
+        <v>26</v>
+      </c>
+      <c r="V11" s="5">
+        <v>435</v>
+      </c>
+      <c r="W11" s="5">
+        <v>18291</v>
+      </c>
+      <c r="X11" s="5">
+        <v>18284</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>19</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>4.995730145175064</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0.38428693424423571</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" s="8" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C12" s="7">
         <v>17</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D12" s="7">
         <v>16</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E12" s="8">
         <v>7897.5</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F12" s="8">
         <v>1242.5</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G12" s="8">
         <v>0.79274730319026854</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H12" s="8">
         <v>0.75500597434014027</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I12" s="8">
         <v>0.72845143698688597</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J12" s="8">
         <v>0.69862745267557835</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K12" s="8">
         <v>0.86875529910892491</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L12" s="8">
         <v>0.45400762927418192</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M12" s="8">
         <v>0.84057024703449779</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N12" s="8">
         <v>0.7709429380817483</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O12" s="8">
         <v>0.451671180676051</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P12" s="8">
         <v>0.64467005076142136</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q12" s="8">
         <v>0.8523489932885906</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R12" s="8">
         <v>70</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S12" s="8">
         <v>22</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T12" s="8">
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U12" s="8">
         <v>149</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V12" s="8">
         <v>2471</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W12" s="8">
         <v>15907</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X12" s="8">
         <v>15448</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y12" s="8">
         <v>1905</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="Z12" s="8">
         <v>29.171198607787691</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AA12" s="8">
         <v>38.568631716336739</v>
       </c>
-      <c r="AB10" s="13">
+      <c r="AB12" s="11">
         <v>2</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AC12" s="11">
         <v>3</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AF12" s="8">
         <v>20</v>
       </c>
-      <c r="AG10" s="8" t="s">
+      <c r="AG12" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AH12" s="8">
         <v>165</v>
       </c>
-      <c r="AI10" s="8">
+      <c r="AI12" s="8">
         <v>89</v>
       </c>
-      <c r="AJ10" s="8" t="s">
+      <c r="AJ12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AK10" s="8" t="s">
+      <c r="AK12" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AL10" s="8">
+      <c r="AL12" s="8">
         <v>39</v>
       </c>
-      <c r="AM10" s="8">
+      <c r="AM12" s="8">
         <v>32.700000000000003</v>
       </c>
-      <c r="AN10" s="8">
+      <c r="AN12" s="8">
         <v>68</v>
       </c>
-      <c r="AO10" s="14">
+      <c r="AO12" s="12">
         <v>13</v>
       </c>
-      <c r="AP10" s="8">
+      <c r="AP12" s="8">
         <v>7.2</v>
       </c>
-      <c r="AQ10" s="8">
+      <c r="AQ12" s="8">
         <v>67</v>
       </c>
-      <c r="AS10" s="8">
+      <c r="AS12" s="8">
         <v>25850</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="10" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+    <row r="13" spans="1:45" s="10" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>22</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B13" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C13" s="9">
         <v>19</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D13" s="9">
         <v>18</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E13" s="10">
         <v>1461.5</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F13" s="10">
         <v>1076.5</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G13" s="10">
         <v>0.77541998231653397</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H13" s="10">
         <v>0.95922066153149066</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I13" s="10">
         <v>0.81458434174266037</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J13" s="10">
         <v>0.75151722685158462</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K13" s="10">
         <v>0.74038679673321228</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L13" s="10">
         <v>0.67502318683574147</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M13" s="10">
         <v>0.7423656745264785</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N13" s="10">
         <v>0.71996303142329021</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O13" s="10">
         <v>0.67311114094664015</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P13" s="10">
         <v>0.86792452830188682</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q13" s="10">
         <v>0.89320388349514568</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R13" s="10">
         <v>14</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S13" s="10">
         <v>11</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T13" s="10">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U13" s="10">
         <v>103</v>
       </c>
-      <c r="V11" s="10">
+      <c r="V13" s="10">
         <v>2164</v>
       </c>
-      <c r="W11" s="10">
+      <c r="W13" s="10">
         <v>3010</v>
       </c>
-      <c r="X11" s="10">
+      <c r="X13" s="10">
         <v>3841</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Y13" s="10">
         <v>1558</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="Z13" s="10">
         <v>71.527777777777786</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AA13" s="10">
         <v>73.611111111111114</v>
       </c>
-      <c r="AB11" s="10">
+      <c r="AB13" s="10">
         <v>3</v>
       </c>
-      <c r="AC11" s="10">
+      <c r="AC13" s="10">
         <v>3</v>
       </c>
-      <c r="AF11" s="10">
+      <c r="AF13" s="10">
         <v>22</v>
       </c>
-      <c r="AG11" s="10" t="s">
+      <c r="AG13" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="AH11" s="10">
+      <c r="AH13" s="10">
         <v>174</v>
       </c>
-      <c r="AI11" s="10">
+      <c r="AI13" s="10">
         <v>128.6</v>
       </c>
-      <c r="AJ11" s="10" t="s">
+      <c r="AJ13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AK11" s="10" t="s">
+      <c r="AK13" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AL11" s="10">
+      <c r="AL13" s="10">
         <v>91</v>
       </c>
-      <c r="AM11" s="10">
+      <c r="AM13" s="10">
         <v>42.5</v>
       </c>
-      <c r="AN11" s="10">
+      <c r="AN13" s="10">
         <v>52</v>
       </c>
-      <c r="AO11" s="15">
+      <c r="AO13" s="13">
         <v>24</v>
       </c>
-      <c r="AP11" s="10">
+      <c r="AP13" s="10">
         <v>5.9</v>
       </c>
-      <c r="AQ11" s="10">
+      <c r="AQ13" s="10">
         <v>77</v>
       </c>
-      <c r="AS11" s="10">
+      <c r="AS13" s="10">
         <v>21350</v>
       </c>
     </row>
-    <row r="12" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="14" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>23</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B14" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C14" s="1">
         <v>20</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D14" s="1">
         <v>19</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E14" s="2">
         <v>10338</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F14" s="2">
         <v>717</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G14" s="2">
         <v>0.81928975716633201</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H14" s="2">
         <v>0.61869966436296409</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I14" s="2">
         <v>0.50910517768683028</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J14" s="2">
         <v>0.74000270802007351</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K14" s="2">
         <v>0.81642294815359939</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L14" s="2">
         <v>0.35938210410181898</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M14" s="2">
         <v>0.9094470461095101</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N14" s="2">
         <v>0.60508701472556892</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O14" s="2">
         <v>0.35938210410181898</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P14" s="2">
         <v>0.53846153846153844</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q14" s="2">
         <v>0.6901408450704225</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R14" s="2">
         <v>42</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S14" s="2">
         <v>22</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T14" s="2">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U14" s="2">
         <v>71</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V14" s="2">
         <v>1494</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W14" s="2">
         <v>20714</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X14" s="2">
         <v>20197</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y14" s="2">
         <v>904</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z14" s="2">
         <v>11.50418579530111</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA14" s="2">
         <v>14.74480151228733</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AB14" s="2">
         <v>1</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AC14" s="2">
         <v>1</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AF14" s="2">
         <v>23</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AG14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AH14" s="2">
         <v>175</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AI14" s="2">
         <v>84</v>
       </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AJ14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AK12" s="2" t="s">
+      <c r="AK14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AL14" s="2">
         <v>14</v>
       </c>
-      <c r="AM12" s="2">
+      <c r="AM14" s="2">
         <v>27.4</v>
       </c>
-      <c r="AN12" s="2">
+      <c r="AN14" s="2">
         <v>49</v>
       </c>
-      <c r="AO12" s="16">
+      <c r="AO14" s="14">
         <v>9</v>
       </c>
-      <c r="AP12" s="2">
+      <c r="AP14" s="2">
         <v>7</v>
       </c>
-      <c r="AQ12" s="2">
+      <c r="AQ14" s="2">
         <v>87</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AS14" s="2">
         <v>25160</v>
       </c>
     </row>
-    <row r="13" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+    <row r="15" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>24</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B15" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C15" s="9">
         <v>21</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D15" s="9">
         <v>20</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E15" s="10">
         <v>8585</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F15" s="10">
         <v>2647</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G15" s="10">
         <v>0.82534741021476266</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H15" s="10">
         <v>0.84521382466720796</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I15" s="10">
         <v>0.79010276082854314</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J15" s="10">
         <v>0.73772875288196371</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K15" s="10">
         <v>0.84671559851461509</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L15" s="10">
         <v>0.60588571154428195</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M15" s="10">
         <v>0.82906399574543521</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N15" s="10">
         <v>0.8151623193844999</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O15" s="10">
         <v>0.60358777351605375</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P15" s="10">
         <v>0.84444444444444444</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q15" s="10">
         <v>0.84444444444444444</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R15" s="10">
         <v>42</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S15" s="10">
         <v>42</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T15" s="10">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="U13" s="10">
+      <c r="U15" s="10">
         <v>270</v>
       </c>
-      <c r="V13" s="10">
+      <c r="V15" s="10">
         <v>5329</v>
       </c>
-      <c r="W13" s="10">
+      <c r="W15" s="10">
         <v>17235</v>
       </c>
-      <c r="X13" s="10">
+      <c r="X15" s="10">
         <v>18707</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Y15" s="10">
         <v>4344</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="Z15" s="10">
         <v>43.058385753521748</v>
       </c>
-      <c r="AA13" s="10">
+      <c r="AA15" s="10">
         <v>43.058385753521748</v>
       </c>
-      <c r="AB13" s="10">
+      <c r="AB15" s="10">
         <v>3</v>
       </c>
-      <c r="AC13" s="10">
+      <c r="AC15" s="10">
         <v>3</v>
       </c>
-      <c r="AF13" s="10">
+      <c r="AF15" s="10">
         <v>24</v>
       </c>
-      <c r="AG13" s="10" t="s">
+      <c r="AG15" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="AH13" s="10">
+      <c r="AH15" s="10">
         <v>182</v>
       </c>
-      <c r="AI13" s="10">
+      <c r="AI15" s="10">
         <v>93</v>
       </c>
-      <c r="AJ13" s="10" t="s">
+      <c r="AJ15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AK13" s="10" t="s">
+      <c r="AK15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AL13" s="10">
+      <c r="AL15" s="10">
         <v>55</v>
       </c>
-      <c r="AM13" s="10">
+      <c r="AM15" s="10">
         <v>28.1</v>
       </c>
-      <c r="AN13" s="10">
+      <c r="AN15" s="10">
         <v>45</v>
       </c>
-      <c r="AO13" s="15">
+      <c r="AO15" s="13">
         <v>10</v>
       </c>
-      <c r="AP13" s="10">
+      <c r="AP15" s="10">
         <v>7.4</v>
       </c>
-      <c r="AQ13" s="10">
+      <c r="AQ15" s="10">
         <v>86</v>
       </c>
-      <c r="AS13" s="10">
+      <c r="AS15" s="10">
         <v>26791</v>
       </c>
     </row>
-    <row r="14" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+    <row r="16" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>25</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B16" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C16" s="9">
         <v>22</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D16" s="9">
         <v>21</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E16" s="10">
         <v>6033</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F16" s="10">
         <v>1551</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G16" s="10">
         <v>0.68500273672687473</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H16" s="10">
         <v>0.86753865562528309</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I16" s="10">
         <v>0.63773748012718601</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J16" s="10">
         <v>0.76758334555600038</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K16" s="10">
         <v>0.73680689359880114</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L16" s="10">
         <v>0.52662774953679503</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M16" s="10">
         <v>0.82189178566749643</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N16" s="10">
         <v>0.66120218579234968</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O16" s="10">
         <v>0.52662774953679503</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P16" s="10">
         <v>0.62841530054644812</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q16" s="10">
         <v>0.8098591549295775</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R16" s="10">
         <v>68</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S16" s="10">
         <v>27</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T16" s="10">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="U14" s="10">
+      <c r="U16" s="10">
         <v>142</v>
       </c>
-      <c r="V14" s="10">
+      <c r="V16" s="10">
         <v>3111</v>
       </c>
-      <c r="W14" s="10">
+      <c r="W16" s="10">
         <v>12155</v>
       </c>
-      <c r="X14" s="10">
+      <c r="X16" s="10">
         <v>12547</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Y16" s="10">
         <v>2057</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="Z16" s="10">
         <v>33.464257659073063</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AA16" s="10">
         <v>43.126472898664566</v>
       </c>
-      <c r="AB14" s="10">
+      <c r="AB16" s="10">
         <v>3</v>
       </c>
-      <c r="AC14" s="10">
+      <c r="AC16" s="10">
         <v>3</v>
       </c>
-      <c r="AF14" s="10">
+      <c r="AF16" s="10">
         <v>25</v>
       </c>
-      <c r="AG14" s="10" t="s">
+      <c r="AG16" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AH14" s="10">
+      <c r="AH16" s="10">
         <v>172</v>
       </c>
-      <c r="AI14" s="10">
+      <c r="AI16" s="10">
         <v>88.9</v>
       </c>
-      <c r="AJ14" s="10" t="s">
+      <c r="AJ16" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AK14" s="10" t="s">
+      <c r="AK16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="AL14" s="10">
+      <c r="AL16" s="10">
         <v>46</v>
       </c>
-      <c r="AM14" s="10">
+      <c r="AM16" s="10">
         <v>30.1</v>
       </c>
-      <c r="AN14" s="10">
+      <c r="AN16" s="10">
         <v>50</v>
       </c>
-      <c r="AO14" s="15">
+      <c r="AO16" s="13">
         <v>13</v>
       </c>
-      <c r="AP14" s="10">
+      <c r="AP16" s="10">
         <v>6</v>
       </c>
-      <c r="AQ14" s="10">
+      <c r="AQ16" s="10">
         <v>68</v>
       </c>
-      <c r="AS14" s="10">
+      <c r="AS16" s="10">
         <v>21660</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="D15">
-        <f>E15+F15</f>
-        <v>246970</v>
-      </c>
-      <c r="E15">
-        <f>SUM(E2:E14)*2</f>
-        <v>212336</v>
-      </c>
-      <c r="F15">
-        <f>SUM(F2:F14)*2</f>
-        <v>34634</v>
-      </c>
-      <c r="M15">
-        <f>AVERAGE(M2:M14)</f>
-        <v>0.87063651301781886</v>
-      </c>
-      <c r="N15">
-        <f>AVERAGE(N2:N14)</f>
-        <v>0.73855011828640527</v>
-      </c>
-      <c r="O15">
-        <f>AVERAGE(O2:O14)</f>
-        <v>0.53732439505390284</v>
-      </c>
-      <c r="P15">
-        <f>(U15-S15)/(U15-S15+R15)</f>
-        <v>0.72631072631072635</v>
-      </c>
-      <c r="Q15">
-        <f>(U15-S15)/U15</f>
-        <v>0.84546472564389696</v>
-      </c>
-      <c r="R15">
-        <f>SUM(R2:R14)</f>
-        <v>569</v>
-      </c>
-      <c r="S15">
-        <f>SUM(S2:S14)</f>
-        <v>276</v>
-      </c>
-      <c r="U15">
-        <f>SUM(U2:U14)</f>
-        <v>1786</v>
       </c>
     </row>
     <row r="17" spans="4:41" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="4:41" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18">
-        <f>SUM(Y2:Y14)</f>
-        <v>25919</v>
-      </c>
-      <c r="F18">
-        <f>F20-F19</f>
-        <v>21469</v>
-      </c>
-      <c r="G18">
-        <f>E18+F18</f>
-        <v>47388</v>
-      </c>
-      <c r="I18">
-        <f>G20/(G18+G19)</f>
-        <v>0.87828594906829294</v>
-      </c>
-      <c r="J18">
-        <f>E18/E20</f>
-        <v>0.74767783995846071</v>
-      </c>
-      <c r="K18">
-        <f>F19/F20</f>
-        <v>0.89948405341124038</v>
-      </c>
-      <c r="L18">
-        <f>E18/G18</f>
-        <v>0.54695281505866467</v>
-      </c>
-      <c r="M18">
-        <f>(N18-O18)/(1-O18)</f>
-        <v>0.56093872440668346</v>
-      </c>
-      <c r="N18">
-        <f>G20/(G18+G19)</f>
-        <v>0.87828594906829294</v>
-      </c>
-      <c r="O18">
-        <f>(E20*G18+F20*G19)/(E20+F20)^2</f>
-        <v>0.72278573015296954</v>
-      </c>
-      <c r="R18" t="s">
-        <v>41</v>
-      </c>
-      <c r="S18" t="s">
-        <v>42</v>
-      </c>
-      <c r="T18" t="s">
-        <v>43</v>
-      </c>
-      <c r="U18" t="s">
-        <v>44</v>
+      <c r="D17">
+        <f>E17+F17</f>
+        <v>283806</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E2:E16)*2</f>
+        <v>248519</v>
+      </c>
+      <c r="F17">
+        <f>SUM(F2:F16)*2</f>
+        <v>35287</v>
+      </c>
+      <c r="M17">
+        <f>AVERAGE(M2:M16)</f>
+        <v>0.88410083974005149</v>
+      </c>
+      <c r="N17">
+        <f>AVERAGE(N2:N16)</f>
+        <v>0.64427069785823854</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(O2:O16)</f>
+        <v>0.48320600669390429</v>
+      </c>
+      <c r="P17">
+        <f>(U17-S17)/(U17-S17+R17)</f>
+        <v>0.7184235517568851</v>
+      </c>
+      <c r="Q17">
+        <f>(U17-S17)/U17</f>
+        <v>0.82768052516411383</v>
+      </c>
+      <c r="R17">
+        <f>SUM(R2:R16)</f>
+        <v>593</v>
+      </c>
+      <c r="S17">
+        <f>SUM(S2:S16)</f>
+        <v>315</v>
+      </c>
+      <c r="U17">
+        <f>SUM(U2:U16)</f>
+        <v>1828</v>
       </c>
     </row>
     <row r="19" spans="4:41" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19">
-        <f>E20-E18</f>
-        <v>8747</v>
-      </c>
-      <c r="F19">
-        <f>G20-E18</f>
-        <v>192119</v>
-      </c>
-      <c r="G19">
-        <f>E19+F19</f>
-        <v>200866</v>
-      </c>
-      <c r="P19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>41</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="4:41" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
       <c r="E20">
-        <f>SUM(V2:V14)</f>
-        <v>34666</v>
+        <f>SUM(Y2:Y16)</f>
+        <v>25942</v>
       </c>
       <c r="F20">
-        <f>SUM(W2:W14)</f>
-        <v>213588</v>
+        <f>F22-F21</f>
+        <v>21898</v>
       </c>
       <c r="G20">
-        <f>SUM(X2:X14)</f>
-        <v>218038</v>
-      </c>
-      <c r="Q20" t="s">
+        <f>E20+F20</f>
+        <v>47840</v>
+      </c>
+      <c r="I20">
+        <f>G22/(G20+G21)</f>
+        <v>0.89040822192466507</v>
+      </c>
+      <c r="J20">
+        <f>E20/E22</f>
+        <v>0.73471352912855081</v>
+      </c>
+      <c r="K20">
+        <f>F21/F22</f>
+        <v>0.91239994079455311</v>
+      </c>
+      <c r="L20">
+        <f>E20/G20</f>
+        <v>0.5422658862876254</v>
+      </c>
+      <c r="M20">
+        <f>(N20-O20)/(1-O20)</f>
+        <v>0.56154356839333841</v>
+      </c>
+      <c r="N20">
+        <f>G22/(G20+G21)</f>
+        <v>0.89040822192466507</v>
+      </c>
+      <c r="O20">
+        <f>(E22*G20+F22*G21)/(E22+F22)^2</f>
+        <v>0.75005092826725939</v>
+      </c>
+      <c r="R20" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" t="s">
         <v>42</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>3</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>3</v>
+      <c r="T20" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="4:41" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <f>E22-E20</f>
+        <v>9367</v>
+      </c>
+      <c r="F21">
+        <f>G22-E20</f>
+        <v>228079</v>
+      </c>
+      <c r="G21">
+        <f>E21+F21</f>
+        <v>237446</v>
+      </c>
+      <c r="P21" t="s">
+        <v>46</v>
+      </c>
       <c r="Q21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
         <v>0</v>
       </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
       <c r="T21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="4:41" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f>SUM(V2:V16)</f>
+        <v>35309</v>
+      </c>
+      <c r="F22">
+        <f>SUM(W2:W16)</f>
+        <v>249977</v>
+      </c>
+      <c r="G22">
+        <f>SUM(X2:X16)</f>
+        <v>254021</v>
+      </c>
       <c r="Q22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
         <v>0</v>
       </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
       <c r="U22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="4:41" x14ac:dyDescent="0.2">
+      <c r="Q23" t="s">
+        <v>43</v>
+      </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="4:41" x14ac:dyDescent="0.2">
-      <c r="AE24" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>116</v>
+      <c r="Q24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>5</v>
+      </c>
+      <c r="V24">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="4:41" x14ac:dyDescent="0.2">
-      <c r="AD25" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ25">
-        <f>AVERAGE(AN5,AN7,AN9,AN12)</f>
-        <v>49</v>
-      </c>
-      <c r="AK25">
-        <f>STDEV(AN5,AN7,AN9,AN12)</f>
-        <v>1.6329931618554521</v>
-      </c>
-      <c r="AL25">
-        <f>AVERAGE(AN2,AN4,AN8,AN10)</f>
-        <v>57.5</v>
-      </c>
-      <c r="AM25">
-        <f>STDEV(AN2,AN4,AN8,AN10)</f>
-        <v>7.1879528842826081</v>
-      </c>
-      <c r="AN25">
-        <f>AVERAGE(AN3,AN6,AN11,AN13,AN14)</f>
-        <v>46.6</v>
-      </c>
-      <c r="AO25">
-        <f>STDEV(AN3,AN6,AN11,AN13,AN14)</f>
-        <v>5.4589376255824886</v>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+      <c r="V25">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="4:41" x14ac:dyDescent="0.2">
-      <c r="K26" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O26" s="12"/>
-      <c r="AD26" t="s">
-        <v>112</v>
+      <c r="AE26" t="s">
+        <v>106</v>
       </c>
       <c r="AF26" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="AG26" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="AH26" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ26">
-        <f>AVERAGE(AM5,AM7,AM9,AM12)</f>
-        <v>28.450000000000003</v>
-      </c>
-      <c r="AK26">
-        <f>STDEV(AM5,AM7,AM9,AM12)</f>
-        <v>2.7160019636713559</v>
-      </c>
-      <c r="AL26">
-        <f>AVERAGE(AM2,AM4,AM8,AM10)</f>
-        <v>31.45</v>
-      </c>
-      <c r="AM26">
-        <f>STDEV(AM2,AM4,AM8,AM10)</f>
-        <v>2.2457367016935299</v>
-      </c>
-      <c r="AN26">
-        <f>AVERAGE(AM3,AM6,AM11,AM13,AM14)</f>
-        <v>34.36</v>
-      </c>
-      <c r="AO26">
-        <f>STDEV(AM3,AM6,AM11,AM13,AM14)</f>
-        <v>6.2159472327232939</v>
+        <v>109</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="4:41" x14ac:dyDescent="0.2">
-      <c r="K27" s="11"/>
-      <c r="L27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="AD27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ27">
+        <f>AVERAGE(AN5,AN8,AN10,AN14)</f>
         <v>49</v>
       </c>
-      <c r="N27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R27" t="s">
-        <v>56</v>
-      </c>
-      <c r="S27" t="s">
-        <v>57</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="U27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="W27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="X27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ27">
-        <f>AVERAGE(Z5,Z7,Z9,Z12)</f>
-        <v>12.403961877155519</v>
-      </c>
       <c r="AK27">
-        <f>STDEV(Z5,Z7,Z9,Z12)</f>
-        <v>1.8129674696418716</v>
+        <f>STDEV(AN5,AN8,AN10,AN14)</f>
+        <v>1.6329931618554521</v>
       </c>
       <c r="AL27">
-        <f>AVERAGE(Z2,Z4,Z8,Z10)</f>
-        <v>25.59460058603354</v>
+        <f>AVERAGE(AN2,AN4,AN9,AN12)</f>
+        <v>57.5</v>
       </c>
       <c r="AM27">
-        <f>STDEV(Z2,Z4,Z8,Z10)</f>
-        <v>3.5761011572685568</v>
+        <f>STDEV(AN2,AN4,AN9,AN12)</f>
+        <v>7.1879528842826081</v>
       </c>
       <c r="AN27">
-        <f>AVERAGE(Z3,Z6,Z11,Z13,Z14)</f>
-        <v>43.750340445629988</v>
+        <f>AVERAGE(AN3,AN7,AN13,AN15,AN16)</f>
+        <v>46.6</v>
       </c>
       <c r="AO27">
-        <f>STDEV(Z3,Z6,Z11,Z13,Z14)</f>
-        <v>16.344987646230781</v>
+        <f>STDEV(AN3,AN7,AN13,AN15,AN16)</f>
+        <v>5.4589376255824886</v>
       </c>
     </row>
     <row r="28" spans="4:41" x14ac:dyDescent="0.2">
-      <c r="K28" t="s">
-        <v>52</v>
-      </c>
-      <c r="T28"/>
-      <c r="AD28" s="5" t="s">
-        <v>128</v>
+      <c r="K28" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" s="16"/>
+      <c r="AD28" t="s">
+        <v>112</v>
       </c>
       <c r="AF28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AG28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AH28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AJ28">
-        <f>AVERAGE(AP5,AP7,AP9,AP12)</f>
-        <v>7.0250000000000004</v>
+        <f>AVERAGE(AM5,AM8,AM10,AM14)</f>
+        <v>28.450000000000003</v>
       </c>
       <c r="AK28">
-        <f>STDEV(AP5,AP7,AP9,AP12)</f>
-        <v>0.17078251276599341</v>
+        <f>STDEV(AM5,AM8,AM10,AM14)</f>
+        <v>2.7160019636713559</v>
       </c>
       <c r="AL28">
-        <f>AVERAGE(AP2,AP4,AP8,AP10)</f>
-        <v>6.625</v>
+        <f>AVERAGE(AM2,AM4,AM9,AM12)</f>
+        <v>31.45</v>
       </c>
       <c r="AM28">
-        <f>STDEV(AP2,AP4,AP8,AP10)</f>
-        <v>0.43493294502332958</v>
+        <f>STDEV(AM2,AM4,AM9,AM12)</f>
+        <v>2.2457367016935299</v>
       </c>
       <c r="AN28">
-        <f>AVERAGE(AP3,AP6,AP11,AP13,AP14)</f>
-        <v>6.839999999999999</v>
+        <f>AVERAGE(AM3,AM7,AM13,AM15,AM16)</f>
+        <v>34.36</v>
       </c>
       <c r="AO28">
-        <f>STDEV(AP3,AP6,AP11,AP13,AP14)</f>
-        <v>0.82036577207975714</v>
+        <f>STDEV(AM3,AM7,AM13,AM15,AM16)</f>
+        <v>6.2159472327232939</v>
       </c>
     </row>
     <row r="29" spans="4:41" x14ac:dyDescent="0.2">
-      <c r="K29" t="s">
-        <v>53</v>
-      </c>
+      <c r="K29" s="15"/>
       <c r="L29" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="M29" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="N29" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
-      </c>
-      <c r="R29">
-        <f>AVERAGE(U5,U7,U9,U12)</f>
-        <v>73.5</v>
-      </c>
-      <c r="S29">
-        <f>STDEV(U5,U7,U9,U12)</f>
-        <v>17.058722109231979</v>
-      </c>
-      <c r="T29">
-        <f>AVERAGE(T5,T7,T9,T12)</f>
-        <v>89.5</v>
-      </c>
-      <c r="U29">
-        <f>STDEV(T5,T7,T9,T12)</f>
-        <v>27.54995462791182</v>
-      </c>
-      <c r="V29">
-        <f>AVERAGE(Z5,Z7,Z12,Z9)</f>
+        <v>49</v>
+      </c>
+      <c r="R29" t="s">
+        <v>56</v>
+      </c>
+      <c r="S29" t="s">
+        <v>57</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ29">
+        <f>AVERAGE(Z5,Z8,Z10,Z14)</f>
         <v>12.403961877155519</v>
       </c>
-      <c r="W29">
-        <f>STDEV(Z5,Z7,Z9,Z12)</f>
+      <c r="AK29">
+        <f>STDEV(Z5,Z8,Z10,Z14)</f>
         <v>1.8129674696418716</v>
       </c>
-      <c r="X29">
-        <f>AVERAGE(AA5,AA7,AA9,AA12)</f>
-        <v>14.910685058052275</v>
-      </c>
-      <c r="Y29">
-        <f>STDEV(AA5,AA7,AA9,AA12)</f>
-        <v>2.7365452271763862</v>
-      </c>
-      <c r="AD29" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ29">
-        <f>AVERAGE(AO5,AO7,AO9,AO12)</f>
-        <v>14.5</v>
-      </c>
-      <c r="AK29">
-        <f>STDEV(AO5,AO7,AO9,AO12)</f>
-        <v>3.872983346207417</v>
-      </c>
       <c r="AL29">
-        <f>AVERAGE(AO2,AO4,AO8,AO10)</f>
-        <v>9.25</v>
+        <f>AVERAGE(Z2,Z4,Z9,Z12)</f>
+        <v>25.59460058603354</v>
       </c>
       <c r="AM29">
-        <f>STDEV(AO2,AO4,AO8,AO10)</f>
-        <v>6.2383224240709669</v>
+        <f>STDEV(Z2,Z4,Z9,Z12)</f>
+        <v>3.5761011572685568</v>
       </c>
       <c r="AN29">
-        <f>AVERAGE(AO3,AO6,AO11,AO13,AO14)</f>
-        <v>12.4</v>
+        <f>AVERAGE(Z3,Z7,Z13,Z15,Z16)</f>
+        <v>43.750340445629988</v>
       </c>
       <c r="AO29">
-        <f>STDEV(AO3,AO6,AO11,AO14,AO13)</f>
-        <v>7.8930349042684469</v>
+        <f>STDEV(Z3,Z7,Z13,Z15,Z16)</f>
+        <v>16.344987646230781</v>
       </c>
     </row>
     <row r="30" spans="4:41" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
-        <v>54</v>
-      </c>
-      <c r="L30" t="s">
-        <v>63</v>
-      </c>
-      <c r="M30" t="s">
-        <v>64</v>
-      </c>
-      <c r="N30" t="s">
-        <v>65</v>
-      </c>
-      <c r="O30" t="s">
-        <v>66</v>
-      </c>
-      <c r="R30">
-        <f>AVERAGE(U2,U4,U8,U10)</f>
-        <v>133.25</v>
-      </c>
-      <c r="S30">
-        <f>STDEV(U2,U4,U8,U10)</f>
-        <v>23.32916629457641</v>
-      </c>
-      <c r="T30">
-        <f>AVERAGE(T2,T4,T8,T10)</f>
-        <v>160</v>
-      </c>
-      <c r="U30">
-        <f>STDEV(T2,T4,T8,T10)</f>
-        <v>38.27096375408734</v>
-      </c>
-      <c r="V30">
-        <f>AVERAGE(V29,Z2,Z4,Z8,Z10)</f>
-        <v>22.956472844257934</v>
-      </c>
-      <c r="W30">
-        <f>STDEV(Z2,Z4,Z8,Z10)</f>
-        <v>3.5761011572685568</v>
-      </c>
-      <c r="X30">
-        <f>AVERAGE(X29,AA2,AA4,AA8,AA10)</f>
-        <v>27.556220775950361</v>
-      </c>
-      <c r="Y30">
-        <f>STDEV(AA2,AA4,AA8,AA10)</f>
-        <v>6.6182630924214765</v>
+        <v>52</v>
+      </c>
+      <c r="T30"/>
+      <c r="AD30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ30">
+        <f>AVERAGE(AP5,AP8,AP10,AP14)</f>
+        <v>7.0250000000000004</v>
+      </c>
+      <c r="AK30">
+        <f>STDEV(AP5,AP8,AP10,AP14)</f>
+        <v>0.17078251276599341</v>
+      </c>
+      <c r="AL30">
+        <f>AVERAGE(AP2,AP4,AP9,AP12)</f>
+        <v>6.625</v>
+      </c>
+      <c r="AM30">
+        <f>STDEV(AP2,AP4,AP9,AP12)</f>
+        <v>0.43493294502332958</v>
+      </c>
+      <c r="AN30">
+        <f>AVERAGE(AP3,AP7,AP13,AP15,AP16)</f>
+        <v>6.839999999999999</v>
+      </c>
+      <c r="AO30">
+        <f>STDEV(AP3,AP7,AP13,AP15,AP16)</f>
+        <v>0.82036577207975714</v>
       </c>
     </row>
     <row r="31" spans="4:41" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" t="s">
+        <v>59</v>
+      </c>
+      <c r="M31" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" t="s">
+        <v>61</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="R31">
+        <f>AVERAGE(U5,U8,U10,U14)</f>
+        <v>73.5</v>
+      </c>
+      <c r="S31">
+        <f>STDEV(U5,U8,U10,U14)</f>
+        <v>17.058722109231979</v>
+      </c>
+      <c r="T31">
+        <f>AVERAGE(T5,T8,T10,T14)</f>
+        <v>89.5</v>
+      </c>
+      <c r="U31">
+        <f>STDEV(T5,T8,T10,T14)</f>
+        <v>27.54995462791182</v>
+      </c>
+      <c r="V31">
+        <f>AVERAGE(Z5,Z8,Z14,Z10)</f>
+        <v>12.403961877155519</v>
+      </c>
+      <c r="W31">
+        <f>STDEV(Z5,Z8,Z10,Z14)</f>
+        <v>1.8129674696418716</v>
+      </c>
+      <c r="X31">
+        <f>AVERAGE(AA5,AA8,AA10,AA14)</f>
+        <v>14.910685058052275</v>
+      </c>
+      <c r="Y31">
+        <f>STDEV(AA5,AA8,AA10,AA14)</f>
+        <v>2.7365452271763862</v>
+      </c>
+      <c r="AD31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ31">
+        <f>AVERAGE(AO5,AO8,AO10,AO14)</f>
+        <v>14.5</v>
+      </c>
+      <c r="AK31">
+        <f>STDEV(AO5,AO8,AO10,AO14)</f>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="AL31">
+        <f>AVERAGE(AO2,AO4,AO9,AO12)</f>
+        <v>9.25</v>
+      </c>
+      <c r="AM31">
+        <f>STDEV(AO2,AO4,AO9,AO12)</f>
+        <v>6.2383224240709669</v>
+      </c>
+      <c r="AN31">
+        <f>AVERAGE(AO3,AO7,AO13,AO15,AO16)</f>
+        <v>12.4</v>
+      </c>
+      <c r="AO31">
+        <f>STDEV(AO3,AO7,AO13,AO16,AO15)</f>
+        <v>7.8930349042684469</v>
+      </c>
+    </row>
+    <row r="32" spans="4:41" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" t="s">
+        <v>64</v>
+      </c>
+      <c r="N32" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="R32">
+        <f>AVERAGE(U2,U4,U9,U12)</f>
+        <v>133.25</v>
+      </c>
+      <c r="S32">
+        <f>STDEV(U2,U4,U9,U12)</f>
+        <v>23.32916629457641</v>
+      </c>
+      <c r="T32">
+        <f>AVERAGE(T2,T4,T9,T12)</f>
+        <v>160</v>
+      </c>
+      <c r="U32">
+        <f>STDEV(T2,T4,T9,T12)</f>
+        <v>38.27096375408734</v>
+      </c>
+      <c r="V32">
+        <f>AVERAGE(V31,Z2,Z4,Z9,Z12)</f>
+        <v>22.956472844257934</v>
+      </c>
+      <c r="W32">
+        <f>STDEV(Z2,Z4,Z9,Z12)</f>
+        <v>3.5761011572685568</v>
+      </c>
+      <c r="X32">
+        <f>AVERAGE(X31,AA2,AA4,AA9,AA12)</f>
+        <v>27.556220775950361</v>
+      </c>
+      <c r="Y32">
+        <f>STDEV(AA2,AA4,AA9,AA12)</f>
+        <v>6.6182630924214765</v>
+      </c>
+    </row>
+    <row r="33" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
         <v>55</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L33" t="s">
         <v>67</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M33" t="s">
         <v>68</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N33" t="s">
         <v>69</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O33" t="s">
         <v>70</v>
       </c>
-      <c r="R31">
-        <f>AVERAGE(U3,U6,U11,U13,U14)</f>
+      <c r="R33">
+        <f>AVERAGE(U3,U7,U13,U15,U16)</f>
         <v>191.8</v>
       </c>
-      <c r="S31">
-        <f>STDEV(U3,U6,U11,U13,U14)</f>
+      <c r="S33">
+        <f>STDEV(U3,U7,U13,U15,U16)</f>
         <v>70.485459493430255</v>
       </c>
-      <c r="T31">
-        <f>AVERAGE(T3,T6,T11,T14,T13)</f>
+      <c r="T33">
+        <f>AVERAGE(T3,T7,T13,T16,T15)</f>
         <v>216.2</v>
       </c>
-      <c r="U31">
-        <f>STDEV(T3,T6,T11,T13,T14)</f>
+      <c r="U33">
+        <f>STDEV(T3,T7,T13,T15,T16)</f>
         <v>70.983800968953446</v>
       </c>
-      <c r="V31">
-        <f>AVERAGE(Z3,Z6,Z11,Z13,Z14)</f>
+      <c r="V33">
+        <f>AVERAGE(Z3,Z7,Z13,Z15,Z16)</f>
         <v>43.750340445629988</v>
       </c>
-      <c r="W31">
-        <f>STDEV(Z3,Z6,Z11,Z13,Z14)</f>
+      <c r="W33">
+        <f>STDEV(Z3,Z7,Z13,Z15,Z16)</f>
         <v>16.344987646230781</v>
       </c>
-      <c r="X31">
-        <f>AVERAGE(X29:X30,AA3,AA6,AA11,AA13,AA14)</f>
+      <c r="X33">
+        <f>AVERAGE(X31:X32,AA3,AA7,AA13,AA15,AA16)</f>
         <v>40.746670822251687</v>
       </c>
-      <c r="Y31">
-        <f>STDEV(AA3,AA6,AA11,AA13,AA14)</f>
+      <c r="Y33">
+        <f>STDEV(AA3,AA7,AA13,AA15,AA16)</f>
         <v>14.038623027199264</v>
       </c>
     </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="K35" t="s">
+    <row r="37" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
         <v>71</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L37" t="s">
         <v>72</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J36" t="s">
+    <row r="38" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
         <v>74</v>
       </c>
-      <c r="K36">
+      <c r="K38">
         <f>10/13</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="L36">
+      <c r="L38">
         <f>(12+12+35)/169</f>
         <v>0.34911242603550297</v>
       </c>
-      <c r="M36">
-        <f>(K36-L36)/(1-L36)</f>
+      <c r="M38">
+        <f>(K38-L38)/(1-L38)</f>
         <v>0.6454545454545455</v>
       </c>
     </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J37" t="s">
+    <row r="39" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
         <v>75</v>
       </c>
-      <c r="K37">
+      <c r="K39">
         <v>1</v>
       </c>
-      <c r="L37">
+      <c r="L39">
         <v>1</v>
       </c>
-      <c r="M37">
+      <c r="M39">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J38" t="s">
+    <row r="40" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="J40" t="s">
         <v>76</v>
       </c>
-      <c r="K38">
+      <c r="K40">
         <f>12/13</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="L38">
+      <c r="L40">
         <f>(12+90)/169</f>
         <v>0.60355029585798814</v>
       </c>
-      <c r="M38">
-        <f>(K38-L38)/(1-L38)</f>
+      <c r="M40">
+        <f>(K40-L40)/(1-L40)</f>
         <v>0.80597014925373145</v>
       </c>
     </row>
-    <row r="39" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J39" t="s">
+    <row r="41" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="J41" t="s">
         <v>77</v>
       </c>
-      <c r="K39">
+      <c r="K41">
         <f>11/13</f>
         <v>0.84615384615384615</v>
       </c>
-      <c r="L39">
+      <c r="L41">
         <f>(48+35)/169</f>
         <v>0.4911242603550296</v>
       </c>
-      <c r="M39" s="5">
-        <f>(K39-L39)/(1-L39)</f>
+      <c r="M41" s="5">
+        <f>(K41-L41)/(1-L41)</f>
         <v>0.69767441860465118</v>
       </c>
     </row>
-    <row r="40" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="M40">
-        <f>(M37+M38+M39)/3</f>
+    <row r="42" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <f>(M39+M40+M41)/3</f>
         <v>0.83454818928612751</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1125/结果2.xlsx
+++ b/1125/结果2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{70937995-7B72-4417-9586-C03165F966D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{27DDFADB-3DCA-49ED-8DE0-0B0A45FAF71B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="164">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -256,10 +256,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>23.0±3.6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>27.6±6.6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -528,6 +524,86 @@
   </si>
   <si>
     <t>12.4±7.89</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>std</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCDDB008</t>
+  </si>
+  <si>
+    <t>23:29:11</t>
+  </si>
+  <si>
+    <t>UCDDB021</t>
+  </si>
+  <si>
+    <t>22:52:05</t>
+  </si>
+  <si>
+    <t>52.00±15.56</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.00±3.68</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.07±5.66</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.00±0.85</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.00±8.49</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.0±7.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.5±16.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1±1.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6±3.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.6±3.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -721,6 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="差" xfId="3" builtinId="27"/>
@@ -1008,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="V10" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1106,44 +1183,44 @@
         <v>29</v>
       </c>
       <c r="AF1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AN1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="AR1" s="5"/>
       <c r="AS1" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1243,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH2" s="8">
         <v>172</v>
@@ -1252,10 +1329,10 @@
         <v>100.3</v>
       </c>
       <c r="AJ2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="AL2" s="8">
         <v>23</v>
@@ -1376,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="AG3" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" s="10">
         <v>179</v>
@@ -1385,10 +1462,10 @@
         <v>102</v>
       </c>
       <c r="AJ3" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK3" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL3" s="10">
         <v>51</v>
@@ -1509,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH4" s="8">
         <v>185</v>
@@ -1518,10 +1595,10 @@
         <v>103.5</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AL4" s="8">
         <v>31</v>
@@ -1639,7 +1716,7 @@
         <v>5</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" s="2">
         <v>183</v>
@@ -1648,10 +1725,10 @@
         <v>84</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL5" s="2">
         <v>12</v>
@@ -1764,6 +1841,45 @@
       <c r="AC6" s="5">
         <v>0</v>
       </c>
+      <c r="AF6" s="5">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>145</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>59.8</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>63</v>
+      </c>
+      <c r="AO6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="AQ6" s="5">
+        <v>64</v>
+      </c>
+      <c r="AS6" s="5">
+        <v>23041</v>
+      </c>
     </row>
     <row r="7" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
@@ -1859,7 +1975,7 @@
         <v>8</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH7" s="10">
         <v>174</v>
@@ -1868,10 +1984,10 @@
         <v>119</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK7" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL7" s="10">
         <v>34</v>
@@ -1992,7 +2108,7 @@
         <v>10</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH8" s="2">
         <v>179</v>
@@ -2001,10 +2117,10 @@
         <v>97.5</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL8" s="2">
         <v>25</v>
@@ -2122,7 +2238,7 @@
         <v>12</v>
       </c>
       <c r="AG9" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH9" s="8">
         <v>177</v>
@@ -2131,10 +2247,10 @@
         <v>91</v>
       </c>
       <c r="AJ9" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK9" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL9" s="8">
         <v>36</v>
@@ -2252,7 +2368,7 @@
         <v>16</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH10" s="2">
         <v>178</v>
@@ -2261,10 +2377,10 @@
         <v>97.8</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL10" s="2">
         <v>16</v>
@@ -2378,6 +2494,45 @@
       <c r="AC11" s="5">
         <v>0</v>
       </c>
+      <c r="AF11" s="5">
+        <v>18</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>161</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>87</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>13</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>33.6</v>
+      </c>
+      <c r="AN11" s="5">
+        <v>41</v>
+      </c>
+      <c r="AO11" s="17">
+        <v>13</v>
+      </c>
+      <c r="AP11" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="AQ11" s="5">
+        <v>82</v>
+      </c>
+      <c r="AS11" s="5">
+        <v>27409</v>
+      </c>
     </row>
     <row r="12" spans="1:45" s="8" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -2473,7 +2628,7 @@
         <v>20</v>
       </c>
       <c r="AG12" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH12" s="8">
         <v>165</v>
@@ -2482,10 +2637,10 @@
         <v>89</v>
       </c>
       <c r="AJ12" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK12" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL12" s="8">
         <v>39</v>
@@ -2603,7 +2758,7 @@
         <v>22</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH13" s="10">
         <v>174</v>
@@ -2612,10 +2767,10 @@
         <v>128.6</v>
       </c>
       <c r="AJ13" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK13" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AL13" s="10">
         <v>91</v>
@@ -2733,7 +2888,7 @@
         <v>23</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH14" s="2">
         <v>175</v>
@@ -2742,10 +2897,10 @@
         <v>84</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL14" s="2">
         <v>14</v>
@@ -2863,7 +3018,7 @@
         <v>24</v>
       </c>
       <c r="AG15" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH15" s="10">
         <v>182</v>
@@ -2872,10 +3027,10 @@
         <v>93</v>
       </c>
       <c r="AJ15" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK15" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL15" s="10">
         <v>55</v>
@@ -2993,7 +3148,7 @@
         <v>25</v>
       </c>
       <c r="AG16" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH16" s="10">
         <v>172</v>
@@ -3002,10 +3157,10 @@
         <v>88.9</v>
       </c>
       <c r="AJ16" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK16" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AL16" s="10">
         <v>46</v>
@@ -3029,7 +3184,7 @@
         <v>21660</v>
       </c>
     </row>
-    <row r="17" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:43" x14ac:dyDescent="0.2">
       <c r="D17">
         <f>E17+F17</f>
         <v>283806</v>
@@ -3070,12 +3225,16 @@
         <f>SUM(S2:S16)</f>
         <v>315</v>
       </c>
+      <c r="T17" s="10">
+        <f>SUM(T2:T16)</f>
+        <v>2106</v>
+      </c>
       <c r="U17">
         <f>SUM(U2:U16)</f>
         <v>1828</v>
       </c>
     </row>
-    <row r="19" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:43" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>30</v>
       </c>
@@ -3107,7 +3266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:43" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>32</v>
       </c>
@@ -3163,8 +3322,20 @@
       <c r="U20" t="s">
         <v>44</v>
       </c>
+      <c r="X20">
+        <v>5</v>
+      </c>
+      <c r="Y20">
+        <v>15</v>
+      </c>
+      <c r="Z20">
+        <v>30</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="21" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:43" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>33</v>
       </c>
@@ -3199,10 +3370,25 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="W21" t="s">
+        <v>159</v>
+      </c>
+      <c r="X21">
+        <v>100</v>
+      </c>
+      <c r="Y21">
+        <v>100</v>
+      </c>
+      <c r="Z21">
+        <v>100</v>
+      </c>
+      <c r="AA21">
+        <v>100</v>
       </c>
     </row>
-    <row r="22" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:43" x14ac:dyDescent="0.2">
       <c r="E22">
         <f>SUM(V2:V16)</f>
         <v>35309</v>
@@ -3233,8 +3419,25 @@
       <c r="V22">
         <v>3</v>
       </c>
+      <c r="W22" t="s">
+        <v>160</v>
+      </c>
+      <c r="X22">
+        <v>100</v>
+      </c>
+      <c r="Y22">
+        <f>5/6*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="Z22">
+        <v>80</v>
+      </c>
+      <c r="AA22">
+        <f>AVERAGE(X22,Y22,Z22)</f>
+        <v>87.777777777777786</v>
+      </c>
     </row>
-    <row r="23" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:43" x14ac:dyDescent="0.2">
       <c r="Q23" t="s">
         <v>43</v>
       </c>
@@ -3253,8 +3456,25 @@
       <c r="V23">
         <v>3</v>
       </c>
+      <c r="W23" t="s">
+        <v>161</v>
+      </c>
+      <c r="X23">
+        <v>100</v>
+      </c>
+      <c r="Y23">
+        <v>90</v>
+      </c>
+      <c r="Z23">
+        <f>5/7*100</f>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="AA23" s="5">
+        <f t="shared" ref="AA23:AA24" si="2">AVERAGE(X23,Y23,Z23)</f>
+        <v>87.142857142857153</v>
+      </c>
     </row>
-    <row r="24" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:43" x14ac:dyDescent="0.2">
       <c r="Q24" t="s">
         <v>44</v>
       </c>
@@ -3273,8 +3493,26 @@
       <c r="V24">
         <v>7</v>
       </c>
+      <c r="W24" t="s">
+        <v>162</v>
+      </c>
+      <c r="X24">
+        <v>100</v>
+      </c>
+      <c r="Y24">
+        <f>14/15*100</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="Z24">
+        <f>13/15*100</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="AA24" s="5">
+        <f t="shared" si="2"/>
+        <v>93.333333333333329</v>
+      </c>
     </row>
-    <row r="25" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:43" x14ac:dyDescent="0.2">
       <c r="R25">
         <v>2</v>
       </c>
@@ -3291,77 +3529,94 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:43" x14ac:dyDescent="0.2">
       <c r="AE26" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF26" t="s">
         <v>106</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>107</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>108</v>
       </c>
-      <c r="AH26" t="s">
-        <v>109</v>
-      </c>
       <c r="AJ26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM26" t="s">
         <v>115</v>
       </c>
-      <c r="AK26" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL26" t="s">
+      <c r="AN26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO26" t="s">
         <v>115</v>
       </c>
-      <c r="AM26" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN26" t="s">
+      <c r="AP26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ26" t="s">
         <v>115</v>
       </c>
-      <c r="AO26" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="27" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:43" x14ac:dyDescent="0.2">
       <c r="AD27" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>149</v>
       </c>
       <c r="AF27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG27" t="s">
         <v>129</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
         <v>130</v>
       </c>
-      <c r="AH27" t="s">
-        <v>131</v>
-      </c>
       <c r="AJ27">
+        <f>AVERAGE(AN6,AN11)</f>
+        <v>52</v>
+      </c>
+      <c r="AK27">
+        <f>STDEV(AN6,AN11)</f>
+        <v>15.556349186104045</v>
+      </c>
+      <c r="AL27">
         <f>AVERAGE(AN5,AN8,AN10,AN14)</f>
         <v>49</v>
       </c>
-      <c r="AK27">
+      <c r="AM27">
         <f>STDEV(AN5,AN8,AN10,AN14)</f>
         <v>1.6329931618554521</v>
       </c>
-      <c r="AL27">
+      <c r="AN27">
         <f>AVERAGE(AN2,AN4,AN9,AN12)</f>
         <v>57.5</v>
       </c>
-      <c r="AM27">
+      <c r="AO27">
         <f>STDEV(AN2,AN4,AN9,AN12)</f>
         <v>7.1879528842826081</v>
       </c>
-      <c r="AN27">
+      <c r="AP27">
         <f>AVERAGE(AN3,AN7,AN13,AN15,AN16)</f>
         <v>46.6</v>
       </c>
-      <c r="AO27">
+      <c r="AQ27">
         <f>STDEV(AN3,AN7,AN13,AN15,AN16)</f>
         <v>5.4589376255824886</v>
       </c>
     </row>
-    <row r="28" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:43" x14ac:dyDescent="0.2">
       <c r="K28" s="15" t="s">
         <v>51</v>
       </c>
@@ -3374,55 +3629,66 @@
       </c>
       <c r="O28" s="16"/>
       <c r="AD28" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>150</v>
       </c>
       <c r="AF28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ28">
+        <f>AVERAGE(AM6,AM11)</f>
+        <v>31</v>
+      </c>
+      <c r="AK28">
+        <f>STDEV(AM6,AM11)</f>
+        <v>3.6769552621700492</v>
+      </c>
+      <c r="AL28">
         <f>AVERAGE(AM5,AM8,AM10,AM14)</f>
         <v>28.450000000000003</v>
       </c>
-      <c r="AK28">
+      <c r="AM28">
         <f>STDEV(AM5,AM8,AM10,AM14)</f>
         <v>2.7160019636713559</v>
       </c>
-      <c r="AL28">
+      <c r="AN28">
         <f>AVERAGE(AM2,AM4,AM9,AM12)</f>
         <v>31.45</v>
       </c>
-      <c r="AM28">
+      <c r="AO28">
         <f>STDEV(AM2,AM4,AM9,AM12)</f>
         <v>2.2457367016935299</v>
       </c>
-      <c r="AN28">
+      <c r="AP28">
         <f>AVERAGE(AM3,AM7,AM13,AM15,AM16)</f>
         <v>34.36</v>
       </c>
-      <c r="AO28">
+      <c r="AQ28">
         <f>STDEV(AM3,AM7,AM13,AM15,AM16)</f>
         <v>6.2159472327232939</v>
       </c>
     </row>
-    <row r="29" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:43" x14ac:dyDescent="0.2">
       <c r="K29" s="15"/>
       <c r="L29" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" t="s">
         <v>48</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="O29" t="s">
-        <v>49</v>
       </c>
       <c r="R29" t="s">
         <v>56</v>
@@ -3449,85 +3715,148 @@
         <v>57</v>
       </c>
       <c r="AD29" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>151</v>
       </c>
       <c r="AF29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ29">
+        <f>AVERAGE(Z6,Z11)</f>
+        <v>4.0702607921769571</v>
+      </c>
+      <c r="AK29">
+        <f>STDEV(Z6,Z11)</f>
+        <v>1.3088113105705734</v>
+      </c>
+      <c r="AL29">
         <f>AVERAGE(Z5,Z8,Z10,Z14)</f>
         <v>12.403961877155519</v>
       </c>
-      <c r="AK29">
+      <c r="AM29">
         <f>STDEV(Z5,Z8,Z10,Z14)</f>
         <v>1.8129674696418716</v>
       </c>
-      <c r="AL29">
+      <c r="AN29">
         <f>AVERAGE(Z2,Z4,Z9,Z12)</f>
         <v>25.59460058603354</v>
       </c>
-      <c r="AM29">
+      <c r="AO29">
         <f>STDEV(Z2,Z4,Z9,Z12)</f>
         <v>3.5761011572685568</v>
       </c>
-      <c r="AN29">
+      <c r="AP29">
         <f>AVERAGE(Z3,Z7,Z13,Z15,Z16)</f>
         <v>43.750340445629988</v>
       </c>
-      <c r="AO29">
+      <c r="AQ29">
         <f>STDEV(Z3,Z7,Z13,Z15,Z16)</f>
         <v>16.344987646230781</v>
       </c>
     </row>
-    <row r="30" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:43" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
         <v>52</v>
       </c>
-      <c r="T30"/>
+      <c r="L30" t="s">
+        <v>154</v>
+      </c>
+      <c r="M30" t="s">
+        <v>155</v>
+      </c>
+      <c r="N30" t="s">
+        <v>156</v>
+      </c>
+      <c r="O30" t="s">
+        <v>157</v>
+      </c>
+      <c r="R30">
+        <f>AVERAGE(U6,U11)</f>
+        <v>21</v>
+      </c>
+      <c r="S30">
+        <f>STDEV(U6,U11)</f>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="T30">
+        <f>AVERAGE(T6,T11)</f>
+        <v>13.5</v>
+      </c>
+      <c r="U30">
+        <f>STDEV(T6,T11)</f>
+        <v>16.263455967290593</v>
+      </c>
+      <c r="V30" s="5">
+        <v>4.0702610000000004</v>
+      </c>
+      <c r="W30">
+        <v>1.3088109999999999</v>
+      </c>
+      <c r="X30">
+        <f>AVERAGE(AA6,AA11)</f>
+        <v>2.649011778980598</v>
+      </c>
+      <c r="Y30">
+        <f>STDEV(AA6,AA11)</f>
+        <v>3.2028045904694649</v>
+      </c>
       <c r="AD30" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>152</v>
       </c>
       <c r="AF30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AH30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ30">
+        <f>AVERAGE(AP6,AP11)</f>
+        <v>7</v>
+      </c>
+      <c r="AK30">
+        <f>STDEV(AP6,AP11)</f>
+        <v>0.84852813742385658</v>
+      </c>
+      <c r="AL30">
         <f>AVERAGE(AP5,AP8,AP10,AP14)</f>
         <v>7.0250000000000004</v>
       </c>
-      <c r="AK30">
+      <c r="AM30">
         <f>STDEV(AP5,AP8,AP10,AP14)</f>
         <v>0.17078251276599341</v>
       </c>
-      <c r="AL30">
+      <c r="AN30">
         <f>AVERAGE(AP2,AP4,AP9,AP12)</f>
         <v>6.625</v>
       </c>
-      <c r="AM30">
+      <c r="AO30">
         <f>STDEV(AP2,AP4,AP9,AP12)</f>
         <v>0.43493294502332958</v>
       </c>
-      <c r="AN30">
+      <c r="AP30">
         <f>AVERAGE(AP3,AP7,AP13,AP15,AP16)</f>
         <v>6.839999999999999</v>
       </c>
-      <c r="AO30">
+      <c r="AQ30">
         <f>STDEV(AP3,AP7,AP13,AP15,AP16)</f>
         <v>0.82036577207975714</v>
       </c>
     </row>
-    <row r="31" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:43" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
         <v>53</v>
       </c>
@@ -3576,43 +3905,54 @@
         <v>2.7365452271763862</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>153</v>
       </c>
       <c r="AF31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AH31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ31">
+        <f>AVERAGE(AO6,AO11)</f>
+        <v>7</v>
+      </c>
+      <c r="AK31">
+        <f>STDEV(AO6,AO11)</f>
+        <v>8.4852813742385695</v>
+      </c>
+      <c r="AL31">
         <f>AVERAGE(AO5,AO8,AO10,AO14)</f>
         <v>14.5</v>
       </c>
-      <c r="AK31">
+      <c r="AM31">
         <f>STDEV(AO5,AO8,AO10,AO14)</f>
         <v>3.872983346207417</v>
       </c>
-      <c r="AL31">
+      <c r="AN31">
         <f>AVERAGE(AO2,AO4,AO9,AO12)</f>
         <v>9.25</v>
       </c>
-      <c r="AM31">
+      <c r="AO31">
         <f>STDEV(AO2,AO4,AO9,AO12)</f>
         <v>6.2383224240709669</v>
       </c>
-      <c r="AN31">
+      <c r="AP31">
         <f>AVERAGE(AO3,AO7,AO13,AO15,AO16)</f>
         <v>12.4</v>
       </c>
-      <c r="AO31">
+      <c r="AQ31">
         <f>STDEV(AO3,AO7,AO13,AO16,AO15)</f>
         <v>7.8930349042684469</v>
       </c>
     </row>
-    <row r="32" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:43" x14ac:dyDescent="0.2">
       <c r="K32" t="s">
         <v>54</v>
       </c>
@@ -3623,10 +3963,10 @@
         <v>64</v>
       </c>
       <c r="N32" t="s">
+        <v>158</v>
+      </c>
+      <c r="O32" t="s">
         <v>65</v>
-      </c>
-      <c r="O32" t="s">
-        <v>66</v>
       </c>
       <c r="R32">
         <f>AVERAGE(U2,U4,U9,U12)</f>
@@ -3645,8 +3985,8 @@
         <v>38.27096375408734</v>
       </c>
       <c r="V32">
-        <f>AVERAGE(V31,Z2,Z4,Z9,Z12)</f>
-        <v>22.956472844257934</v>
+        <f>AVERAGE(Z2,Z4,Z9,Z12)</f>
+        <v>25.59460058603354</v>
       </c>
       <c r="W32">
         <f>STDEV(Z2,Z4,Z9,Z12)</f>
@@ -3666,16 +4006,16 @@
         <v>55</v>
       </c>
       <c r="L33" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" t="s">
         <v>67</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>68</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>69</v>
-      </c>
-      <c r="O33" t="s">
-        <v>70</v>
       </c>
       <c r="R33">
         <f>AVERAGE(U3,U7,U13,U15,U16)</f>
@@ -3712,18 +4052,18 @@
     </row>
     <row r="37" spans="10:25" x14ac:dyDescent="0.2">
       <c r="K37" t="s">
+        <v>70</v>
+      </c>
+      <c r="L37" t="s">
         <v>71</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>72</v>
-      </c>
-      <c r="M37" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="38" spans="10:25" x14ac:dyDescent="0.2">
       <c r="J38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K38">
         <f>10/13</f>
@@ -3740,7 +4080,7 @@
     </row>
     <row r="39" spans="10:25" x14ac:dyDescent="0.2">
       <c r="J39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -3754,7 +4094,7 @@
     </row>
     <row r="40" spans="10:25" x14ac:dyDescent="0.2">
       <c r="J40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K40">
         <f>12/13</f>
@@ -3771,7 +4111,7 @@
     </row>
     <row r="41" spans="10:25" x14ac:dyDescent="0.2">
       <c r="J41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K41">
         <f>11/13</f>

--- a/1125/结果2.xlsx
+++ b/1125/结果2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{27DDFADB-3DCA-49ED-8DE0-0B0A45FAF71B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C56B6DCF-193B-4E53-8560-E6CC9539E9C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -791,13 +791,13 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="差" xfId="3" builtinId="27"/>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V10" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1868,7 +1868,7 @@
       <c r="AN6" s="5">
         <v>63</v>
       </c>
-      <c r="AO6" s="17">
+      <c r="AO6" s="15">
         <v>1</v>
       </c>
       <c r="AP6" s="5">
@@ -2521,7 +2521,7 @@
       <c r="AN11" s="5">
         <v>41</v>
       </c>
-      <c r="AO11" s="17">
+      <c r="AO11" s="15">
         <v>13</v>
       </c>
       <c r="AP11" s="5">
@@ -3233,6 +3233,10 @@
         <f>SUM(U2:U16)</f>
         <v>1828</v>
       </c>
+      <c r="V17">
+        <f>(U17-S17)/U17</f>
+        <v>0.82768052516411383</v>
+      </c>
     </row>
     <row r="19" spans="4:43" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
@@ -3617,17 +3621,17 @@
       </c>
     </row>
     <row r="28" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="L28" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16" t="s">
+      <c r="M28" s="17"/>
+      <c r="N28" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="O28" s="16"/>
+      <c r="O28" s="17"/>
       <c r="AD28" t="s">
         <v>111</v>
       </c>
@@ -3677,7 +3681,7 @@
       </c>
     </row>
     <row r="29" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="K29" s="15"/>
+      <c r="K29" s="16"/>
       <c r="L29" t="s">
         <v>49</v>
       </c>

--- a/1125/结果2.xlsx
+++ b/1125/结果2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C56B6DCF-193B-4E53-8560-E6CC9539E9C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BB9C13B9-BD94-45C9-B169-A36AED6DCFF9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="175">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -604,6 +604,50 @@
   </si>
   <si>
     <t>平均值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_pre</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_pre</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kappa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1085,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3184,7 +3228,7 @@
         <v>21660</v>
       </c>
     </row>
-    <row r="17" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="D17">
         <f>E17+F17</f>
         <v>283806</v>
@@ -3238,7 +3282,7 @@
         <v>0.82768052516411383</v>
       </c>
     </row>
-    <row r="19" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>30</v>
       </c>
@@ -3270,7 +3314,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>32</v>
       </c>
@@ -3339,7 +3383,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>33</v>
       </c>
@@ -3392,7 +3436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="E22">
         <f>SUM(V2:V16)</f>
         <v>35309</v>
@@ -3441,7 +3485,7 @@
         <v>87.777777777777786</v>
       </c>
     </row>
-    <row r="23" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="Q23" t="s">
         <v>43</v>
       </c>
@@ -3478,7 +3522,7 @@
         <v>87.142857142857153</v>
       </c>
     </row>
-    <row r="24" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="Q24" t="s">
         <v>44</v>
       </c>
@@ -3516,7 +3560,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="25" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="R25">
         <v>2</v>
       </c>
@@ -3533,7 +3577,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" t="s">
+        <v>172</v>
+      </c>
       <c r="AE26" t="s">
         <v>105</v>
       </c>
@@ -3571,7 +3636,36 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="5">
+        <v>25942</v>
+      </c>
+      <c r="C27" s="5">
+        <v>19642</v>
+      </c>
+      <c r="D27">
+        <f>B27+C27</f>
+        <v>45584</v>
+      </c>
+      <c r="E27">
+        <f>D29/(D27+D28)</f>
+        <v>0.92354816778101356</v>
+      </c>
+      <c r="F27">
+        <f>B27/B29</f>
+        <v>0.94928278688524592</v>
+      </c>
+      <c r="G27">
+        <f>C28/C29</f>
+        <v>0.92070918492982023</v>
+      </c>
+      <c r="H27">
+        <f>B27/D27</f>
+        <v>0.5691031941031941</v>
+      </c>
       <c r="AD27" t="s">
         <v>110</v>
       </c>
@@ -3620,7 +3714,29 @@
         <v>5.4589376255824886</v>
       </c>
     </row>
-    <row r="28" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1386</v>
+      </c>
+      <c r="C28" s="5">
+        <v>228079</v>
+      </c>
+      <c r="D28">
+        <f>B28+C28</f>
+        <v>229465</v>
+      </c>
+      <c r="E28" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" t="s">
+        <v>172</v>
+      </c>
       <c r="K28" s="16" t="s">
         <v>51</v>
       </c>
@@ -3680,7 +3796,31 @@
         <v>6.2159472327232939</v>
       </c>
     </row>
-    <row r="29" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
+        <f>B27+B28</f>
+        <v>27328</v>
+      </c>
+      <c r="C29" s="5">
+        <f>C27+C28</f>
+        <v>247721</v>
+      </c>
+      <c r="D29">
+        <f>B27+C28</f>
+        <v>254021</v>
+      </c>
+      <c r="E29">
+        <f>D29/(D28+D27)</f>
+        <v>0.92354816778101356</v>
+      </c>
+      <c r="F29">
+        <f>(B29*D27+C29*D28)/(D29*D29)</f>
+        <v>0.90023272889276362</v>
+      </c>
+      <c r="G29">
+        <f>(E29-F29)/(1-F29)</f>
+        <v>0.23369827228399365</v>
+      </c>
       <c r="K29" s="16"/>
       <c r="L29" t="s">
         <v>49</v>
@@ -3766,7 +3906,7 @@
         <v>16.344987646230781</v>
       </c>
     </row>
-    <row r="30" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
         <v>52</v>
       </c>
@@ -3860,7 +4000,7 @@
         <v>0.82036577207975714</v>
       </c>
     </row>
-    <row r="31" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
         <v>53</v>
       </c>
@@ -3956,7 +4096,7 @@
         <v>7.8930349042684469</v>
       </c>
     </row>
-    <row r="32" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="K32" t="s">
         <v>54</v>
       </c>
